--- a/08/After_Soc_EEH2.xlsx
+++ b/08/After_Soc_EEH2.xlsx
@@ -584,136 +584,136 @@
         <v>7</v>
       </c>
       <c r="C2" t="n">
-        <v>0.05426405903738841</v>
+        <v>0.05426405903731191</v>
       </c>
       <c r="D2" t="n">
-        <v>6.063012604575764</v>
+        <v>6.063012604575754</v>
       </c>
       <c r="E2" t="n">
-        <v>12.89649880684932</v>
+        <v>12.89649880684915</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1138397292092666</v>
+        <v>0.1138397292092918</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1799624223494915</v>
+        <v>0.179962422349485</v>
       </c>
       <c r="H2" t="n">
-        <v>0.09732601313298947</v>
+        <v>0.09732601313325119</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1020612067695871</v>
+        <v>0.1020612067693801</v>
       </c>
       <c r="J2" t="n">
-        <v>0.0677110237944734</v>
+        <v>0.06771102379431949</v>
       </c>
       <c r="K2" t="n">
-        <v>0.05970033357564145</v>
+        <v>0.05970033357605866</v>
       </c>
       <c r="L2" t="n">
-        <v>0.07448391406719115</v>
+        <v>0.07448391406687981</v>
       </c>
       <c r="M2" t="n">
-        <v>0.08326156785642587</v>
+        <v>0.08326156785610371</v>
       </c>
       <c r="N2" t="n">
-        <v>1.595708694315881</v>
+        <v>1.595708694314927</v>
       </c>
       <c r="O2" t="n">
-        <v>2.001752313024768</v>
+        <v>2.001752313026464</v>
       </c>
       <c r="P2" t="n">
-        <v>0.2580471873398571</v>
+        <v>0.2580471873397323</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.09425463831660107</v>
+        <v>0.09425463831667785</v>
       </c>
       <c r="R2" t="n">
-        <v>0.1044583947468644</v>
+        <v>0.1044583947468472</v>
       </c>
       <c r="S2" t="n">
-        <v>0.1586272917736828</v>
+        <v>0.1586272917733251</v>
       </c>
       <c r="T2" t="n">
-        <v>0.1146617102898438</v>
+        <v>0.1146617102891158</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1051969152360979</v>
+        <v>0.105196915236094</v>
       </c>
       <c r="V2" t="n">
-        <v>0.05770684208268697</v>
+        <v>0.05770684208288657</v>
       </c>
       <c r="W2" t="n">
-        <v>9.917653807982735</v>
+        <v>9.917653807982818</v>
       </c>
       <c r="X2" t="n">
-        <v>6.112757941604259</v>
+        <v>6.112757941604137</v>
       </c>
       <c r="Y2" t="n">
-        <v>4.800938451190313</v>
+        <v>4.800938451190341</v>
       </c>
       <c r="Z2" t="n">
         <v>12.1884604886022</v>
       </c>
       <c r="AA2" t="n">
-        <v>3.636718533235822</v>
+        <v>3.63671853323607</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.4598640797804554</v>
+        <v>0.4598640797801831</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.06467554615181031</v>
+        <v>0.06467554615136696</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.1507860512235043</v>
+        <v>0.150786051223019</v>
       </c>
       <c r="AE2" t="n">
-        <v>0.1265983258814182</v>
+        <v>0.126598325881091</v>
       </c>
       <c r="AF2" t="n">
-        <v>0.3517571223926737</v>
+        <v>0.3517571223935064</v>
       </c>
       <c r="AG2" t="n">
-        <v>0.07555890628111271</v>
+        <v>0.07555890628098477</v>
       </c>
       <c r="AH2" t="n">
-        <v>0.2694591715834637</v>
+        <v>0.2694591715820326</v>
       </c>
       <c r="AI2" t="n">
-        <v>0.2359832336668649</v>
+        <v>0.2359832336674083</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0.09546790105125096</v>
+        <v>0.09546790104730923</v>
       </c>
       <c r="AK2" t="n">
-        <v>0.1097291250324273</v>
+        <v>0.1097291250315877</v>
       </c>
       <c r="AL2" t="n">
-        <v>0.9164145627256703</v>
+        <v>0.9164145627256279</v>
       </c>
       <c r="AM2" t="n">
-        <v>0.0618716303700798</v>
+        <v>0.06187163037016424</v>
       </c>
       <c r="AN2" t="n">
-        <v>0.04492209161283951</v>
+        <v>0.04492209161248362</v>
       </c>
       <c r="AO2" t="n">
-        <v>0.05698818738001563</v>
+        <v>0.05698818737958661</v>
       </c>
       <c r="AP2" t="n">
-        <v>0.07695594466433345</v>
+        <v>0.07695594466371689</v>
       </c>
       <c r="AQ2" t="n">
-        <v>0.6466471122915725</v>
+        <v>0.6466471122919603</v>
       </c>
       <c r="AR2" t="n">
-        <v>0.2490208193743349</v>
+        <v>0.2490208193743835</v>
       </c>
       <c r="AS2" t="n">
-        <v>6.966291865265442</v>
+        <v>6.966291865265445</v>
       </c>
       <c r="AT2" t="n">
-        <v>0.06392293655347263</v>
+        <v>0.06392293655344207</v>
       </c>
     </row>
     <row r="3" spans="1:46">
@@ -721,136 +721,136 @@
         <v>8</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1004858537721078</v>
+        <v>0.100485853772236</v>
       </c>
       <c r="D3" t="n">
-        <v>8.508737253815319</v>
+        <v>8.508737253815271</v>
       </c>
       <c r="E3" t="n">
-        <v>12.81880246814904</v>
+        <v>12.81880246814881</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1252539537902373</v>
+        <v>0.1252539537902376</v>
       </c>
       <c r="G3" t="n">
-        <v>0.3984035726909974</v>
+        <v>0.3984035726913671</v>
       </c>
       <c r="H3" t="n">
-        <v>0.5390167232464936</v>
+        <v>0.5390167232464653</v>
       </c>
       <c r="I3" t="n">
-        <v>0.7089514904102264</v>
+        <v>0.7089514904101615</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7974486684862766</v>
+        <v>0.7974486684868367</v>
       </c>
       <c r="K3" t="n">
-        <v>0.4479288210317278</v>
+        <v>0.447928821031901</v>
       </c>
       <c r="L3" t="n">
-        <v>0.2652510443494206</v>
+        <v>0.2652510443491088</v>
       </c>
       <c r="M3" t="n">
-        <v>0.6269954619123993</v>
+        <v>0.6269954619127907</v>
       </c>
       <c r="N3" t="n">
-        <v>0.6381409073593005</v>
+        <v>0.6381409073598612</v>
       </c>
       <c r="O3" t="n">
-        <v>0.8238655982470564</v>
+        <v>0.8238655982471881</v>
       </c>
       <c r="P3" t="n">
-        <v>0.2294847477559316</v>
+        <v>0.2294847477553639</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.4887833599439851</v>
+        <v>0.4887833599439885</v>
       </c>
       <c r="R3" t="n">
-        <v>0.4647005287297185</v>
+        <v>0.4647005287296365</v>
       </c>
       <c r="S3" t="n">
-        <v>0.4147483766526259</v>
+        <v>0.4147483766524131</v>
       </c>
       <c r="T3" t="n">
-        <v>0.3914786147749398</v>
+        <v>0.3914786147752232</v>
       </c>
       <c r="U3" t="n">
-        <v>0.4076831039840638</v>
+        <v>0.4076831039844102</v>
       </c>
       <c r="V3" t="n">
-        <v>0.3190791245741201</v>
+        <v>0.3190791245741286</v>
       </c>
       <c r="W3" t="n">
-        <v>25.16341846743076</v>
+        <v>25.16341846743098</v>
       </c>
       <c r="X3" t="n">
-        <v>8.439301775740518</v>
+        <v>8.439301775740468</v>
       </c>
       <c r="Y3" t="n">
-        <v>8.354636129379669</v>
+        <v>8.354636129379665</v>
       </c>
       <c r="Z3" t="n">
-        <v>26.332629947931</v>
+        <v>26.33262994793099</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.1443259566789648</v>
+        <v>0.1443259566791299</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.1516154853576454</v>
+        <v>0.1516154853615401</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.05942559667257741</v>
+        <v>0.05942559667112951</v>
       </c>
       <c r="AD3" t="n">
-        <v>0.1534427750186472</v>
+        <v>0.1534427750182649</v>
       </c>
       <c r="AE3" t="n">
-        <v>0.1579263778714955</v>
+        <v>0.1579263778713363</v>
       </c>
       <c r="AF3" t="n">
-        <v>0.1136187070796037</v>
+        <v>0.1136187070799009</v>
       </c>
       <c r="AG3" t="n">
-        <v>0.1678792079650212</v>
+        <v>0.1678792079650076</v>
       </c>
       <c r="AH3" t="n">
-        <v>0.3075698303070934</v>
+        <v>0.3075698303070615</v>
       </c>
       <c r="AI3" t="n">
-        <v>0.07225388469148164</v>
+        <v>0.07225388469137872</v>
       </c>
       <c r="AJ3" t="n">
-        <v>0.3461080223581238</v>
+        <v>0.3461080223584519</v>
       </c>
       <c r="AK3" t="n">
-        <v>0.2826507661515677</v>
+        <v>0.2826507661516132</v>
       </c>
       <c r="AL3" t="n">
-        <v>0.1734014732063705</v>
+        <v>0.1734014732051862</v>
       </c>
       <c r="AM3" t="n">
-        <v>0.1320400300861939</v>
+        <v>0.1320400300862587</v>
       </c>
       <c r="AN3" t="n">
-        <v>0.5827271847823767</v>
+        <v>0.5827271847831489</v>
       </c>
       <c r="AO3" t="n">
-        <v>0.2306365420751388</v>
+        <v>0.2306365420740622</v>
       </c>
       <c r="AP3" t="n">
-        <v>0.1501766374243916</v>
+        <v>0.150176637424255</v>
       </c>
       <c r="AQ3" t="n">
-        <v>0.2097936328665388</v>
+        <v>0.209793632867038</v>
       </c>
       <c r="AR3" t="n">
-        <v>0.2410298207766322</v>
+        <v>0.2410298207771324</v>
       </c>
       <c r="AS3" t="n">
         <v>12.19014459403962</v>
       </c>
       <c r="AT3" t="n">
-        <v>0.06751262208797595</v>
+        <v>0.06751262208792652</v>
       </c>
     </row>
     <row r="4" spans="1:46">
@@ -858,136 +858,136 @@
         <v>9</v>
       </c>
       <c r="C4" t="n">
-        <v>0.07579274178908604</v>
+        <v>0.07579274178906735</v>
       </c>
       <c r="D4" t="n">
-        <v>0.2773853760818732</v>
+        <v>0.2773853760809622</v>
       </c>
       <c r="E4" t="n">
-        <v>0.4317487842830556</v>
+        <v>0.4317487842821033</v>
       </c>
       <c r="F4" t="n">
-        <v>0.5865909616804393</v>
+        <v>0.5865909616804775</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1226864881858331</v>
+        <v>0.122686488184742</v>
       </c>
       <c r="H4" t="n">
-        <v>0.07806300225314407</v>
+        <v>0.07806300225314568</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1282463694959632</v>
+        <v>0.1282463694959439</v>
       </c>
       <c r="J4" t="n">
-        <v>0.1689024065164735</v>
+        <v>0.1689024065166554</v>
       </c>
       <c r="K4" t="n">
-        <v>0.1135272536988948</v>
+        <v>0.1135272536989794</v>
       </c>
       <c r="L4" t="n">
-        <v>0.1044955212870756</v>
+        <v>0.1044955212871992</v>
       </c>
       <c r="M4" t="n">
-        <v>0.1128758275786365</v>
+        <v>0.1128758275781544</v>
       </c>
       <c r="N4" t="n">
-        <v>0.1053040960750508</v>
+        <v>0.1053040960740849</v>
       </c>
       <c r="O4" t="n">
-        <v>0.1144397329676651</v>
+        <v>0.1144397329681668</v>
       </c>
       <c r="P4" t="n">
-        <v>0.07845866085971363</v>
+        <v>0.07845866086002483</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.07881064743001649</v>
+        <v>0.07881064743051046</v>
       </c>
       <c r="R4" t="n">
-        <v>0.07802031154238311</v>
+        <v>0.07802031154217218</v>
       </c>
       <c r="S4" t="n">
-        <v>0.06658279299129459</v>
+        <v>0.06658279298983678</v>
       </c>
       <c r="T4" t="n">
-        <v>0.08205544008510388</v>
+        <v>0.08205544008530119</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1000576205196881</v>
+        <v>0.1000576205201446</v>
       </c>
       <c r="V4" t="n">
-        <v>0.1055640553662698</v>
+        <v>0.1055640553667941</v>
       </c>
       <c r="W4" t="n">
-        <v>1.237327126540316</v>
+        <v>1.237327126540466</v>
       </c>
       <c r="X4" t="n">
-        <v>0.9649710038548484</v>
+        <v>0.964971003854889</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.2448852778583166</v>
+        <v>0.244885277858421</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.4113184323853462</v>
+        <v>0.4113184323855308</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.2206243328425574</v>
+        <v>0.2206243328425412</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.3613988445818359</v>
+        <v>0.3613988445820563</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.088791095060236</v>
+        <v>0.08879109506013694</v>
       </c>
       <c r="AD4" t="n">
-        <v>0.2345704631092276</v>
+        <v>0.2345704631092955</v>
       </c>
       <c r="AE4" t="n">
-        <v>0.08392373864793055</v>
+        <v>0.0839237386471869</v>
       </c>
       <c r="AF4" t="n">
-        <v>0.1104697617616813</v>
+        <v>0.1104697617614242</v>
       </c>
       <c r="AG4" t="n">
-        <v>0.2073429259178483</v>
+        <v>0.2073429259177366</v>
       </c>
       <c r="AH4" t="n">
-        <v>0.2879755342337149</v>
+        <v>0.2879755342344292</v>
       </c>
       <c r="AI4" t="n">
-        <v>0.5083774271246609</v>
+        <v>0.5083774271249076</v>
       </c>
       <c r="AJ4" t="n">
-        <v>0.2369777313248278</v>
+        <v>0.2369777313249908</v>
       </c>
       <c r="AK4" t="n">
-        <v>0.08811220696538857</v>
+        <v>0.08811220696559063</v>
       </c>
       <c r="AL4" t="n">
-        <v>0.128186110528607</v>
+        <v>0.1281861105286172</v>
       </c>
       <c r="AM4" t="n">
-        <v>0.1835358253263115</v>
+        <v>0.1835358253263816</v>
       </c>
       <c r="AN4" t="n">
-        <v>0.1761265876247768</v>
+        <v>0.1761265876244501</v>
       </c>
       <c r="AO4" t="n">
-        <v>0.2702106465448874</v>
+        <v>0.2702106465448992</v>
       </c>
       <c r="AP4" t="n">
-        <v>0.07676397768952005</v>
+        <v>0.07676397768930646</v>
       </c>
       <c r="AQ4" t="n">
-        <v>0.1164588574474218</v>
+        <v>0.1164588574474956</v>
       </c>
       <c r="AR4" t="n">
-        <v>0.2315960743419123</v>
+        <v>0.2315960743424967</v>
       </c>
       <c r="AS4" t="n">
-        <v>0.2082949405455894</v>
+        <v>0.2082949405455961</v>
       </c>
       <c r="AT4" t="n">
-        <v>0.07386951059491362</v>
+        <v>0.07386951059515391</v>
       </c>
     </row>
     <row r="5" spans="1:46">
@@ -995,136 +995,136 @@
         <v>10</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1158298879614967</v>
+        <v>0.1158298879615304</v>
       </c>
       <c r="D5" t="n">
-        <v>0.3251901336843968</v>
+        <v>0.3251901336843231</v>
       </c>
       <c r="E5" t="n">
-        <v>1.392452097574514</v>
+        <v>1.39245209757425</v>
       </c>
       <c r="F5" t="n">
-        <v>1.216060578122814</v>
+        <v>1.216060578122895</v>
       </c>
       <c r="G5" t="n">
-        <v>0.2019691026598884</v>
+        <v>0.2019691026603071</v>
       </c>
       <c r="H5" t="n">
-        <v>0.4089473434583697</v>
+        <v>0.4089473434584782</v>
       </c>
       <c r="I5" t="n">
-        <v>0.5491041316437232</v>
+        <v>0.5491041316437454</v>
       </c>
       <c r="J5" t="n">
-        <v>0.2071517122400791</v>
+        <v>0.2071517122400734</v>
       </c>
       <c r="K5" t="n">
-        <v>0.3411418749066997</v>
+        <v>0.3411418749067271</v>
       </c>
       <c r="L5" t="n">
-        <v>0.6109094609423915</v>
+        <v>0.6109094609422492</v>
       </c>
       <c r="M5" t="n">
-        <v>0.6475018965133372</v>
+        <v>0.6475018965133643</v>
       </c>
       <c r="N5" t="n">
-        <v>0.544334184028871</v>
+        <v>0.544334184028788</v>
       </c>
       <c r="O5" t="n">
-        <v>1.085793634194074</v>
+        <v>1.085793634193929</v>
       </c>
       <c r="P5" t="n">
-        <v>0.612203641801027</v>
+        <v>0.6122036418003629</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.8455885410912009</v>
+        <v>0.8455885410907212</v>
       </c>
       <c r="R5" t="n">
-        <v>0.6914852587357257</v>
+        <v>0.6914852587349859</v>
       </c>
       <c r="S5" t="n">
-        <v>0.9272902183299607</v>
+        <v>0.9272902183292351</v>
       </c>
       <c r="T5" t="n">
-        <v>0.6888163686283255</v>
+        <v>0.6888163686280496</v>
       </c>
       <c r="U5" t="n">
-        <v>1.227001256514991</v>
+        <v>1.227001256514972</v>
       </c>
       <c r="V5" t="n">
-        <v>1.009176446054548</v>
+        <v>1.009176446054673</v>
       </c>
       <c r="W5" t="n">
-        <v>2.537890775765764</v>
+        <v>2.537890775765697</v>
       </c>
       <c r="X5" t="n">
-        <v>1.772691955634022</v>
+        <v>1.772691955634033</v>
       </c>
       <c r="Y5" t="n">
-        <v>2.310040548755642</v>
+        <v>2.310040548755633</v>
       </c>
       <c r="Z5" t="n">
-        <v>5.022063920312786</v>
+        <v>5.022063920312745</v>
       </c>
       <c r="AA5" t="n">
-        <v>1.091358128455169</v>
+        <v>1.091358128454604</v>
       </c>
       <c r="AB5" t="n">
-        <v>1.483753282473418</v>
+        <v>1.483753282473313</v>
       </c>
       <c r="AC5" t="n">
-        <v>0.181966208443843</v>
+        <v>0.1819662084438426</v>
       </c>
       <c r="AD5" t="n">
-        <v>0.1262894931950743</v>
+        <v>0.1262894931968779</v>
       </c>
       <c r="AE5" t="n">
-        <v>0.1588493732659931</v>
+        <v>0.1588493732651204</v>
       </c>
       <c r="AF5" t="n">
-        <v>0.6121095484537268</v>
+        <v>0.6121095484535374</v>
       </c>
       <c r="AG5" t="n">
-        <v>0.111216071604517</v>
+        <v>0.1112160716046598</v>
       </c>
       <c r="AH5" t="n">
-        <v>0.1526847962675525</v>
+        <v>0.1526847962669123</v>
       </c>
       <c r="AI5" t="n">
-        <v>1.776047405760492</v>
+        <v>1.776047405760519</v>
       </c>
       <c r="AJ5" t="n">
-        <v>4.478801179581443</v>
+        <v>4.478801179580264</v>
       </c>
       <c r="AK5" t="n">
-        <v>0.1491883401478707</v>
+        <v>0.1491883401485213</v>
       </c>
       <c r="AL5" t="n">
-        <v>0.3110589209004469</v>
+        <v>0.3110589209008678</v>
       </c>
       <c r="AM5" t="n">
-        <v>0.1868978796908141</v>
+        <v>0.186897879691109</v>
       </c>
       <c r="AN5" t="n">
-        <v>0.2920607020073697</v>
+        <v>0.2920607020076376</v>
       </c>
       <c r="AO5" t="n">
-        <v>0.3149387806551097</v>
+        <v>0.3149387806552146</v>
       </c>
       <c r="AP5" t="n">
-        <v>0.4220482368015482</v>
+        <v>0.4220482368018161</v>
       </c>
       <c r="AQ5" t="n">
-        <v>0.5166273771459379</v>
+        <v>0.5166273771458395</v>
       </c>
       <c r="AR5" t="n">
-        <v>0.443983614058201</v>
+        <v>0.4439836140580063</v>
       </c>
       <c r="AS5" t="n">
-        <v>0.9122527290476214</v>
+        <v>0.9122527290476453</v>
       </c>
       <c r="AT5" t="n">
-        <v>0.1207169019316645</v>
+        <v>0.1207169019318022</v>
       </c>
     </row>
     <row r="6" spans="1:46">
@@ -1132,136 +1132,136 @@
         <v>11</v>
       </c>
       <c r="C6" t="n">
-        <v>0.09538250489268441</v>
+        <v>0.09538250489268953</v>
       </c>
       <c r="D6" t="n">
-        <v>1.167006152144442</v>
+        <v>1.167006152144777</v>
       </c>
       <c r="E6" t="n">
-        <v>1.680016624680028</v>
+        <v>1.680016624680319</v>
       </c>
       <c r="F6" t="n">
-        <v>0.4218362010912908</v>
+        <v>0.4218362010919119</v>
       </c>
       <c r="G6" t="n">
-        <v>0.7421080749038422</v>
+        <v>0.7421080749055917</v>
       </c>
       <c r="H6" t="n">
-        <v>0.4244238024230072</v>
+        <v>0.4244238024230598</v>
       </c>
       <c r="I6" t="n">
-        <v>0.3694765127292041</v>
+        <v>0.3694765127295206</v>
       </c>
       <c r="J6" t="n">
-        <v>0.1584066837448723</v>
+        <v>0.1584066837451225</v>
       </c>
       <c r="K6" t="n">
-        <v>0.1692286520624526</v>
+        <v>0.1692286520626086</v>
       </c>
       <c r="L6" t="n">
-        <v>1.127800543762142</v>
+        <v>1.127800543762396</v>
       </c>
       <c r="M6" t="n">
-        <v>1.123413492430055</v>
+        <v>1.123413492430106</v>
       </c>
       <c r="N6" t="n">
-        <v>0.302912868043747</v>
+        <v>0.3029128680440415</v>
       </c>
       <c r="O6" t="n">
-        <v>0.3930704988951649</v>
+        <v>0.3930704988941974</v>
       </c>
       <c r="P6" t="n">
-        <v>0.1684870905929745</v>
+        <v>0.1684870905930185</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.2224999582996562</v>
+        <v>0.2224999582995128</v>
       </c>
       <c r="R6" t="n">
-        <v>0.2826603311771229</v>
+        <v>0.2826603311770354</v>
       </c>
       <c r="S6" t="n">
-        <v>0.4112722058843451</v>
+        <v>0.4112722058845035</v>
       </c>
       <c r="T6" t="n">
-        <v>0.3361506107879486</v>
+        <v>0.3361506107888839</v>
       </c>
       <c r="U6" t="n">
-        <v>0.5628839394867342</v>
+        <v>0.5628839394866779</v>
       </c>
       <c r="V6" t="n">
-        <v>0.4416806942446334</v>
+        <v>0.4416806942444474</v>
       </c>
       <c r="W6" t="n">
-        <v>4.571460994424095</v>
+        <v>4.57146099442431</v>
       </c>
       <c r="X6" t="n">
-        <v>3.798328025195653</v>
+        <v>3.798328025195637</v>
       </c>
       <c r="Y6" t="n">
-        <v>1.882514121527582</v>
+        <v>1.882514121527345</v>
       </c>
       <c r="Z6" t="n">
-        <v>3.827430111823422</v>
+        <v>3.827430111823152</v>
       </c>
       <c r="AA6" t="n">
-        <v>2.851580975505927</v>
+        <v>2.851580975506091</v>
       </c>
       <c r="AB6" t="n">
-        <v>0.4295298848039196</v>
+        <v>0.42952988480437</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.08230283601815649</v>
+        <v>0.08230283601738693</v>
       </c>
       <c r="AD6" t="n">
-        <v>0.1921228923974423</v>
+        <v>0.1921228923971879</v>
       </c>
       <c r="AE6" t="n">
-        <v>0.1780290997886837</v>
+        <v>0.1780290997880519</v>
       </c>
       <c r="AF6" t="n">
-        <v>0.1512931691206957</v>
+        <v>0.1512931691209403</v>
       </c>
       <c r="AG6" t="n">
-        <v>0.1335548967833092</v>
+        <v>0.1335548967832264</v>
       </c>
       <c r="AH6" t="n">
-        <v>0.475012673412112</v>
+        <v>0.4750126734121988</v>
       </c>
       <c r="AI6" t="n">
-        <v>0.09924030998904708</v>
+        <v>0.09924030998868753</v>
       </c>
       <c r="AJ6" t="n">
-        <v>2.272000446091222</v>
+        <v>2.272000446091345</v>
       </c>
       <c r="AK6" t="n">
-        <v>0.1382507104274853</v>
+        <v>0.1382507104274034</v>
       </c>
       <c r="AL6" t="n">
-        <v>0.1064638226838287</v>
+        <v>0.1064638226838145</v>
       </c>
       <c r="AM6" t="n">
-        <v>0.2029054017611018</v>
+        <v>0.2029054017611863</v>
       </c>
       <c r="AN6" t="n">
-        <v>0.2779448834322359</v>
+        <v>0.2779448834323173</v>
       </c>
       <c r="AO6" t="n">
-        <v>0.5520558166263378</v>
+        <v>0.5520558166270266</v>
       </c>
       <c r="AP6" t="n">
-        <v>0.3415333529041589</v>
+        <v>0.3415333529040188</v>
       </c>
       <c r="AQ6" t="n">
-        <v>0.3948942378442252</v>
+        <v>0.3948942378440701</v>
       </c>
       <c r="AR6" t="n">
-        <v>0.1850505638287026</v>
+        <v>0.1850505638283796</v>
       </c>
       <c r="AS6" t="n">
-        <v>5.103423636442511</v>
+        <v>5.103423636442447</v>
       </c>
       <c r="AT6" t="n">
-        <v>0.09727413158669111</v>
+        <v>0.09727413158690044</v>
       </c>
     </row>
     <row r="7" spans="1:46">
@@ -1269,136 +1269,136 @@
         <v>12</v>
       </c>
       <c r="C7" t="n">
-        <v>0.07528370679610379</v>
+        <v>0.07528370679612272</v>
       </c>
       <c r="D7" t="n">
-        <v>0.6374418480596235</v>
+        <v>0.6374418480594201</v>
       </c>
       <c r="E7" t="n">
-        <v>0.8722832380148106</v>
+        <v>0.872283238014918</v>
       </c>
       <c r="F7" t="n">
-        <v>0.4972461601725917</v>
+        <v>0.4972461601720545</v>
       </c>
       <c r="G7" t="n">
-        <v>0.4936752943539421</v>
+        <v>0.4936752943539018</v>
       </c>
       <c r="H7" t="n">
-        <v>0.7845899021932013</v>
+        <v>0.7845899021931174</v>
       </c>
       <c r="I7" t="n">
-        <v>0.3078692504821529</v>
+        <v>0.307869250482198</v>
       </c>
       <c r="J7" t="n">
-        <v>0.1435857954760219</v>
+        <v>0.1435857954756042</v>
       </c>
       <c r="K7" t="n">
-        <v>0.2845505889773468</v>
+        <v>0.2845505889777082</v>
       </c>
       <c r="L7" t="n">
-        <v>0.3349658440198325</v>
+        <v>0.3349658440194593</v>
       </c>
       <c r="M7" t="n">
-        <v>0.4430631004347727</v>
+        <v>0.4430631004347821</v>
       </c>
       <c r="N7" t="n">
-        <v>0.4961899731478422</v>
+        <v>0.4961899731478961</v>
       </c>
       <c r="O7" t="n">
-        <v>0.3997958434648224</v>
+        <v>0.3997958434640833</v>
       </c>
       <c r="P7" t="n">
-        <v>0.4714486768734815</v>
+        <v>0.4714486768730051</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.614482912093791</v>
+        <v>0.6144829120937118</v>
       </c>
       <c r="R7" t="n">
-        <v>0.4578661588817884</v>
+        <v>0.4578661588813565</v>
       </c>
       <c r="S7" t="n">
-        <v>0.5919884363887923</v>
+        <v>0.5919884363893123</v>
       </c>
       <c r="T7" t="n">
-        <v>0.1499213115549791</v>
+        <v>0.1499213115551116</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1654410634816293</v>
+        <v>0.1654410634824376</v>
       </c>
       <c r="V7" t="n">
-        <v>0.2940143422252061</v>
+        <v>0.2940143422249308</v>
       </c>
       <c r="W7" t="n">
-        <v>0.4680092158579598</v>
+        <v>0.4680092158585822</v>
       </c>
       <c r="X7" t="n">
-        <v>0.2576491049003463</v>
+        <v>0.2576491049003267</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.2233858838704192</v>
+        <v>0.2233858838705452</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.3647351227754743</v>
+        <v>0.3647351227756404</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.3194953500155216</v>
+        <v>0.3194953500155707</v>
       </c>
       <c r="AB7" t="n">
-        <v>0.435579898733345</v>
+        <v>0.4355798987334117</v>
       </c>
       <c r="AC7" t="n">
-        <v>0.07642387299565831</v>
+        <v>0.07642387299741656</v>
       </c>
       <c r="AD7" t="n">
-        <v>0.07413431044279957</v>
+        <v>0.07413431044368761</v>
       </c>
       <c r="AE7" t="n">
-        <v>0.1569512239853504</v>
+        <v>0.1569512239851851</v>
       </c>
       <c r="AF7" t="n">
-        <v>0.1229968593478331</v>
+        <v>0.1229968593477429</v>
       </c>
       <c r="AG7" t="n">
-        <v>0.1087579798805847</v>
+        <v>0.1087579798804982</v>
       </c>
       <c r="AH7" t="n">
-        <v>0.2253719200646087</v>
+        <v>0.2253719200647126</v>
       </c>
       <c r="AI7" t="n">
-        <v>0.1354572889637377</v>
+        <v>0.1354572889627926</v>
       </c>
       <c r="AJ7" t="n">
-        <v>0.1065352545579209</v>
+        <v>0.1065352545579138</v>
       </c>
       <c r="AK7" t="n">
-        <v>0.07510002358633673</v>
+        <v>0.07510002358651585</v>
       </c>
       <c r="AL7" t="n">
-        <v>0.1861111036748609</v>
+        <v>0.1861111036753955</v>
       </c>
       <c r="AM7" t="n">
-        <v>0.1545112016173592</v>
+        <v>0.154511201617116</v>
       </c>
       <c r="AN7" t="n">
-        <v>0.1361504906901021</v>
+        <v>0.1361504906901774</v>
       </c>
       <c r="AO7" t="n">
-        <v>0.2524591748644665</v>
+        <v>0.2524591748646804</v>
       </c>
       <c r="AP7" t="n">
-        <v>0.4565046238714116</v>
+        <v>0.4565046238715871</v>
       </c>
       <c r="AQ7" t="n">
-        <v>0.1635889193774553</v>
+        <v>0.1635889193775731</v>
       </c>
       <c r="AR7" t="n">
-        <v>0.4780621969270421</v>
+        <v>0.4780621969268645</v>
       </c>
       <c r="AS7" t="n">
-        <v>0.3713976648877824</v>
+        <v>0.371397664887847</v>
       </c>
       <c r="AT7" t="n">
-        <v>0.07626642173011174</v>
+        <v>0.0762664217301791</v>
       </c>
     </row>
     <row r="8" spans="1:46">
@@ -1406,136 +1406,136 @@
         <v>13</v>
       </c>
       <c r="C8" t="n">
-        <v>0.08784634221401225</v>
+        <v>0.08784634221312515</v>
       </c>
       <c r="D8" t="n">
-        <v>5.499240314692411</v>
+        <v>5.499240314692365</v>
       </c>
       <c r="E8" t="n">
-        <v>8.165901961642495</v>
+        <v>8.165901961642433</v>
       </c>
       <c r="F8" t="n">
-        <v>1.05751088192084</v>
+        <v>1.057510881920695</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2076965482372555</v>
+        <v>0.2076965482375586</v>
       </c>
       <c r="H8" t="n">
-        <v>0.2773300593823957</v>
+        <v>0.2773300593824333</v>
       </c>
       <c r="I8" t="n">
-        <v>0.331742180048427</v>
+        <v>0.3317421800483935</v>
       </c>
       <c r="J8" t="n">
-        <v>0.1629825812286425</v>
+        <v>0.1629825812285089</v>
       </c>
       <c r="K8" t="n">
-        <v>0.2129517346234224</v>
+        <v>0.2129517346233027</v>
       </c>
       <c r="L8" t="n">
-        <v>0.07809652780832964</v>
+        <v>0.07809652780825536</v>
       </c>
       <c r="M8" t="n">
-        <v>0.09701077230096231</v>
+        <v>0.09701077230075636</v>
       </c>
       <c r="N8" t="n">
-        <v>0.5670132143951913</v>
+        <v>0.5670132143977542</v>
       </c>
       <c r="O8" t="n">
-        <v>0.7110320531529043</v>
+        <v>0.7110320531537881</v>
       </c>
       <c r="P8" t="n">
-        <v>1.029674629156398</v>
+        <v>1.029674629154997</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.267098450269874</v>
+        <v>1.267098450270505</v>
       </c>
       <c r="R8" t="n">
-        <v>3.350308475617695</v>
+        <v>3.350308475619154</v>
       </c>
       <c r="S8" t="n">
-        <v>5.228023934410249</v>
+        <v>5.228023934409196</v>
       </c>
       <c r="T8" t="n">
-        <v>5.101439437508022</v>
+        <v>5.101439437508298</v>
       </c>
       <c r="U8" t="n">
-        <v>0.5593121357280595</v>
+        <v>0.5593121357276606</v>
       </c>
       <c r="V8" t="n">
-        <v>0.1485203854567515</v>
+        <v>0.148520385456675</v>
       </c>
       <c r="W8" t="n">
-        <v>13.15760023432544</v>
+        <v>13.15760023432532</v>
       </c>
       <c r="X8" t="n">
-        <v>8.627144424476752</v>
+        <v>8.627144424476796</v>
       </c>
       <c r="Y8" t="n">
-        <v>7.864317582898969</v>
+        <v>7.864317582898922</v>
       </c>
       <c r="Z8" t="n">
-        <v>25.32486838326701</v>
+        <v>25.32486838326697</v>
       </c>
       <c r="AA8" t="n">
-        <v>1.00893827031076</v>
+        <v>1.008938270307562</v>
       </c>
       <c r="AB8" t="n">
-        <v>0.2888740806012631</v>
+        <v>0.2888740806000411</v>
       </c>
       <c r="AC8" t="n">
-        <v>0.1410804350986309</v>
+        <v>0.1410804350986954</v>
       </c>
       <c r="AD8" t="n">
-        <v>0.07028533649848873</v>
+        <v>0.07028533649923557</v>
       </c>
       <c r="AE8" t="n">
-        <v>0.2151571094515306</v>
+        <v>0.2151571094512016</v>
       </c>
       <c r="AF8" t="n">
-        <v>0.3765208567399403</v>
+        <v>0.3765208567406647</v>
       </c>
       <c r="AG8" t="n">
-        <v>0.1479778747877141</v>
+        <v>0.1479778747871896</v>
       </c>
       <c r="AH8" t="n">
-        <v>0.3045041503015591</v>
+        <v>0.304504150301717</v>
       </c>
       <c r="AI8" t="n">
-        <v>0.1874849618873987</v>
+        <v>0.1874849618872904</v>
       </c>
       <c r="AJ8" t="n">
-        <v>1.103338554619718</v>
+        <v>1.103338554621004</v>
       </c>
       <c r="AK8" t="n">
-        <v>0.1008204917735204</v>
+        <v>0.1008204917734021</v>
       </c>
       <c r="AL8" t="n">
-        <v>0.2274745119222115</v>
+        <v>0.2274745119223485</v>
       </c>
       <c r="AM8" t="n">
-        <v>1.544431023749227</v>
+        <v>1.544431023748777</v>
       </c>
       <c r="AN8" t="n">
-        <v>0.4941915666623289</v>
+        <v>0.4941915666618503</v>
       </c>
       <c r="AO8" t="n">
-        <v>0.2640323755437987</v>
+        <v>0.2640323755437446</v>
       </c>
       <c r="AP8" t="n">
-        <v>0.710310956508907</v>
+        <v>0.7103109565082966</v>
       </c>
       <c r="AQ8" t="n">
-        <v>0.1993313740677812</v>
+        <v>0.1993313740684055</v>
       </c>
       <c r="AR8" t="n">
-        <v>3.13190495723541</v>
+        <v>3.131904957234471</v>
       </c>
       <c r="AS8" t="n">
-        <v>9.919459626724601</v>
+        <v>9.919459626724535</v>
       </c>
       <c r="AT8" t="n">
-        <v>0.2276563212958412</v>
+        <v>0.2276563212959235</v>
       </c>
     </row>
     <row r="9" spans="1:46">
@@ -1543,136 +1543,136 @@
         <v>14</v>
       </c>
       <c r="C9" t="n">
-        <v>0.07688414006535427</v>
+        <v>0.07688414006523395</v>
       </c>
       <c r="D9" t="n">
-        <v>1.91139474546439</v>
+        <v>1.911394745464408</v>
       </c>
       <c r="E9" t="n">
-        <v>3.430432749543262</v>
+        <v>3.430432749543282</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1648299533957845</v>
+        <v>0.1648299533959323</v>
       </c>
       <c r="G9" t="n">
-        <v>4.37847437315159</v>
+        <v>4.378474373151522</v>
       </c>
       <c r="H9" t="n">
-        <v>6.472229525018019</v>
+        <v>6.472229525018339</v>
       </c>
       <c r="I9" t="n">
-        <v>5.040035768235076</v>
+        <v>5.040035768234752</v>
       </c>
       <c r="J9" t="n">
-        <v>6.413238287504671</v>
+        <v>6.413238287505372</v>
       </c>
       <c r="K9" t="n">
-        <v>0.1224395901081608</v>
+        <v>0.1224395901084946</v>
       </c>
       <c r="L9" t="n">
-        <v>0.09860073586342527</v>
+        <v>0.09860073586348959</v>
       </c>
       <c r="M9" t="n">
-        <v>0.728076859820909</v>
+        <v>0.7280768598217945</v>
       </c>
       <c r="N9" t="n">
-        <v>1.97631592143143</v>
+        <v>1.976315921431419</v>
       </c>
       <c r="O9" t="n">
-        <v>2.050920584889899</v>
+        <v>2.050920584889739</v>
       </c>
       <c r="P9" t="n">
-        <v>0.7796459341221742</v>
+        <v>0.7796459341237517</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.026941474573439</v>
+        <v>1.026941474573194</v>
       </c>
       <c r="R9" t="n">
-        <v>4.990830896488679</v>
+        <v>4.990830896488119</v>
       </c>
       <c r="S9" t="n">
-        <v>10.356428736134</v>
+        <v>10.35642873613487</v>
       </c>
       <c r="T9" t="n">
-        <v>2.674918500994117</v>
+        <v>2.674918500994355</v>
       </c>
       <c r="U9" t="n">
-        <v>3.642267015309815</v>
+        <v>3.642267015309731</v>
       </c>
       <c r="V9" t="n">
-        <v>4.419027132437586</v>
+        <v>4.419027132437446</v>
       </c>
       <c r="W9" t="n">
-        <v>7.088328126767125</v>
+        <v>7.088328126767525</v>
       </c>
       <c r="X9" t="n">
-        <v>3.741658635195054</v>
+        <v>3.741658635195284</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.9916408060389132</v>
+        <v>0.9916408060385968</v>
       </c>
       <c r="Z9" t="n">
-        <v>1.959229037651708</v>
+        <v>1.959229037651813</v>
       </c>
       <c r="AA9" t="n">
-        <v>3.012159215224834</v>
+        <v>3.012159215224429</v>
       </c>
       <c r="AB9" t="n">
-        <v>0.2830705623836153</v>
+        <v>0.2830705623830861</v>
       </c>
       <c r="AC9" t="n">
-        <v>0.3266165150866948</v>
+        <v>0.3266165150866223</v>
       </c>
       <c r="AD9" t="n">
-        <v>0.3102881457358879</v>
+        <v>0.3102881457359241</v>
       </c>
       <c r="AE9" t="n">
-        <v>0.2777621524301046</v>
+        <v>0.2777621524305041</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.301432588138935</v>
+        <v>1.301432588138745</v>
       </c>
       <c r="AG9" t="n">
-        <v>0.3075416883480778</v>
+        <v>0.3075416883479707</v>
       </c>
       <c r="AH9" t="n">
-        <v>0.1245716833995611</v>
+        <v>0.1245716834002685</v>
       </c>
       <c r="AI9" t="n">
-        <v>0.6029845278353847</v>
+        <v>0.6029845278353495</v>
       </c>
       <c r="AJ9" t="n">
-        <v>5.665946969173032</v>
+        <v>5.665946969173048</v>
       </c>
       <c r="AK9" t="n">
-        <v>2.521305548574362</v>
+        <v>2.521305548574488</v>
       </c>
       <c r="AL9" t="n">
-        <v>0.2437651563224146</v>
+        <v>0.2437651563223705</v>
       </c>
       <c r="AM9" t="n">
-        <v>0.3271693552109549</v>
+        <v>0.3271693552104423</v>
       </c>
       <c r="AN9" t="n">
-        <v>0.7065288281169479</v>
+        <v>0.7065288281175878</v>
       </c>
       <c r="AO9" t="n">
-        <v>0.1871976815122279</v>
+        <v>0.1871976815126622</v>
       </c>
       <c r="AP9" t="n">
-        <v>0.5095076173501552</v>
+        <v>0.5095076173499895</v>
       </c>
       <c r="AQ9" t="n">
-        <v>1.541856145231295</v>
+        <v>1.541856145231731</v>
       </c>
       <c r="AR9" t="n">
-        <v>0.3408344765690404</v>
+        <v>0.3408344765690429</v>
       </c>
       <c r="AS9" t="n">
-        <v>5.070964974731027</v>
+        <v>5.070964974731011</v>
       </c>
       <c r="AT9" t="n">
-        <v>0.08044482093634359</v>
+        <v>0.08044482093653312</v>
       </c>
     </row>
     <row r="10" spans="1:46">
@@ -1680,136 +1680,136 @@
         <v>15</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2512667754988268</v>
+        <v>0.2512667755048275</v>
       </c>
       <c r="D10" t="n">
-        <v>4.417936805548047</v>
+        <v>4.41793680554853</v>
       </c>
       <c r="E10" t="n">
-        <v>7.47910264777187</v>
+        <v>7.479102647770218</v>
       </c>
       <c r="F10" t="n">
-        <v>0.3286243958130753</v>
+        <v>0.3286243958087795</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1411710690082335</v>
+        <v>0.1411710690026243</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1497508733949035</v>
+        <v>0.1497508733935669</v>
       </c>
       <c r="I10" t="n">
-        <v>1.131406717743626</v>
+        <v>1.131406717741603</v>
       </c>
       <c r="J10" t="n">
-        <v>1.000806150580117</v>
+        <v>1.000806150582882</v>
       </c>
       <c r="K10" t="n">
-        <v>1.254368539434668</v>
+        <v>1.254368539444811</v>
       </c>
       <c r="L10" t="n">
-        <v>1.792424086235294</v>
+        <v>1.792424086221818</v>
       </c>
       <c r="M10" t="n">
-        <v>1.451243326009276</v>
+        <v>1.451243326004331</v>
       </c>
       <c r="N10" t="n">
-        <v>0.7089130166545765</v>
+        <v>0.7089130166487663</v>
       </c>
       <c r="O10" t="n">
-        <v>0.9612841536212157</v>
+        <v>0.961284153635325</v>
       </c>
       <c r="P10" t="n">
-        <v>2.086594937570082</v>
+        <v>2.086594937539696</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.736842046142093</v>
+        <v>2.73684204614889</v>
       </c>
       <c r="R10" t="n">
-        <v>0.3232736493912585</v>
+        <v>0.323273649399786</v>
       </c>
       <c r="S10" t="n">
-        <v>0.1109279782220605</v>
+        <v>0.1109279782243286</v>
       </c>
       <c r="T10" t="n">
-        <v>0.1058391060187168</v>
+        <v>0.1058391060188041</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1066256951268745</v>
+        <v>0.1066256951314699</v>
       </c>
       <c r="V10" t="n">
-        <v>0.0791697042895475</v>
+        <v>0.07916970428854191</v>
       </c>
       <c r="W10" t="n">
-        <v>3.479806117831168</v>
+        <v>3.479806117829242</v>
       </c>
       <c r="X10" t="n">
-        <v>2.715065484676321</v>
+        <v>2.715065484661382</v>
       </c>
       <c r="Y10" t="n">
-        <v>1.593973423065856</v>
+        <v>1.593973423066671</v>
       </c>
       <c r="Z10" t="n">
-        <v>3.090961491461881</v>
+        <v>3.090961491462351</v>
       </c>
       <c r="AA10" t="n">
-        <v>0.2939503618657447</v>
+        <v>0.2939503618664538</v>
       </c>
       <c r="AB10" t="n">
-        <v>0.929439505930526</v>
+        <v>0.9294395059240476</v>
       </c>
       <c r="AC10" t="n">
-        <v>0.3637981019709928</v>
+        <v>0.3637981019630521</v>
       </c>
       <c r="AD10" t="n">
-        <v>0.7074120749044706</v>
+        <v>0.7074120749154659</v>
       </c>
       <c r="AE10" t="n">
-        <v>0.1625757877041031</v>
+        <v>0.1625757876921529</v>
       </c>
       <c r="AF10" t="n">
-        <v>0.1333454293778125</v>
+        <v>0.1333454293792541</v>
       </c>
       <c r="AG10" t="n">
-        <v>0.05608499698452014</v>
+        <v>0.05608499698931583</v>
       </c>
       <c r="AH10" t="n">
-        <v>0.1471147411231095</v>
+        <v>0.1471147411216803</v>
       </c>
       <c r="AI10" t="n">
-        <v>0.06145517440378648</v>
+        <v>0.06145517439509823</v>
       </c>
       <c r="AJ10" t="n">
-        <v>0.4753082002576456</v>
+        <v>0.4753082002565608</v>
       </c>
       <c r="AK10" t="n">
-        <v>0.3376037976751735</v>
+        <v>0.3376037976718797</v>
       </c>
       <c r="AL10" t="n">
-        <v>0.1393207713637735</v>
+        <v>0.1393207713720071</v>
       </c>
       <c r="AM10" t="n">
-        <v>9.246828371320372</v>
+        <v>9.246828371323758</v>
       </c>
       <c r="AN10" t="n">
-        <v>0.3585295696408725</v>
+        <v>0.3585295696381743</v>
       </c>
       <c r="AO10" t="n">
-        <v>0.3836547467677757</v>
+        <v>0.3836547467660126</v>
       </c>
       <c r="AP10" t="n">
-        <v>0.190892367365941</v>
+        <v>0.1908923673644481</v>
       </c>
       <c r="AQ10" t="n">
-        <v>1.701062396029128</v>
+        <v>1.701062396026969</v>
       </c>
       <c r="AR10" t="n">
-        <v>0.05949034814096205</v>
+        <v>0.05949034813726397</v>
       </c>
       <c r="AS10" t="n">
-        <v>3.623939618363992</v>
+        <v>3.623939618365697</v>
       </c>
       <c r="AT10" t="n">
-        <v>0.3101240785370981</v>
+        <v>0.3101240785403002</v>
       </c>
     </row>
     <row r="11" spans="1:46">
@@ -1817,136 +1817,136 @@
         <v>16</v>
       </c>
       <c r="C11" t="n">
-        <v>0.3266414461819093</v>
+        <v>0.3266414461818443</v>
       </c>
       <c r="D11" t="n">
-        <v>3.607813358770338</v>
+        <v>3.607813358770347</v>
       </c>
       <c r="E11" t="n">
-        <v>8.434841037843631</v>
+        <v>8.434841037843849</v>
       </c>
       <c r="F11" t="n">
-        <v>1.590848249672658</v>
+        <v>1.590848249672133</v>
       </c>
       <c r="G11" t="n">
-        <v>0.474814982210142</v>
+        <v>0.4748149822100123</v>
       </c>
       <c r="H11" t="n">
-        <v>0.722914717679204</v>
+        <v>0.7229147176792474</v>
       </c>
       <c r="I11" t="n">
-        <v>0.9633287127449236</v>
+        <v>0.9633287127450111</v>
       </c>
       <c r="J11" t="n">
-        <v>1.375395240795259</v>
+        <v>1.375395240795224</v>
       </c>
       <c r="K11" t="n">
-        <v>1.965910871224945</v>
+        <v>1.965910871224996</v>
       </c>
       <c r="L11" t="n">
-        <v>1.13744029264896</v>
+        <v>1.137440292649139</v>
       </c>
       <c r="M11" t="n">
-        <v>1.12201404099574</v>
+        <v>1.122014040995694</v>
       </c>
       <c r="N11" t="n">
-        <v>1.427543948811932</v>
+        <v>1.42754394881206</v>
       </c>
       <c r="O11" t="n">
-        <v>2.557631470632848</v>
+        <v>2.557631470632797</v>
       </c>
       <c r="P11" t="n">
-        <v>2.224628331932721</v>
+        <v>2.224628331932673</v>
       </c>
       <c r="Q11" t="n">
-        <v>3.960100828135976</v>
+        <v>3.960100828136176</v>
       </c>
       <c r="R11" t="n">
-        <v>2.61030491739774</v>
+        <v>2.610304917397753</v>
       </c>
       <c r="S11" t="n">
-        <v>1.463240509448317</v>
+        <v>1.463240509447929</v>
       </c>
       <c r="T11" t="n">
-        <v>2.355418414869845</v>
+        <v>2.355418414869887</v>
       </c>
       <c r="U11" t="n">
-        <v>4.845300648022752</v>
+        <v>4.845300648024146</v>
       </c>
       <c r="V11" t="n">
-        <v>1.115355333934121</v>
+        <v>1.115355333934183</v>
       </c>
       <c r="W11" t="n">
-        <v>1.834459408534963</v>
+        <v>1.834459408534689</v>
       </c>
       <c r="X11" t="n">
-        <v>0.9281343292760385</v>
+        <v>0.9281343292763915</v>
       </c>
       <c r="Y11" t="n">
-        <v>1.055004055553801</v>
+        <v>1.055004055553871</v>
       </c>
       <c r="Z11" t="n">
-        <v>3.123584681091164</v>
+        <v>3.123584681091489</v>
       </c>
       <c r="AA11" t="n">
-        <v>0.9520797667313975</v>
+        <v>0.9520797667318213</v>
       </c>
       <c r="AB11" t="n">
-        <v>1.042455987265946</v>
+        <v>1.042455987265983</v>
       </c>
       <c r="AC11" t="n">
-        <v>0.4833090300333455</v>
+        <v>0.4833090300338196</v>
       </c>
       <c r="AD11" t="n">
-        <v>3.122681711210275</v>
+        <v>3.122681711210837</v>
       </c>
       <c r="AE11" t="n">
-        <v>0.2206742992886672</v>
+        <v>0.2206742992888196</v>
       </c>
       <c r="AF11" t="n">
-        <v>0.7118233656636976</v>
+        <v>0.7118233656642873</v>
       </c>
       <c r="AG11" t="n">
-        <v>0.3382107019443455</v>
+        <v>0.3382107019443062</v>
       </c>
       <c r="AH11" t="n">
-        <v>0.5699914069676685</v>
+        <v>0.5699914069677132</v>
       </c>
       <c r="AI11" t="n">
-        <v>0.9923918110870896</v>
+        <v>0.9923918110871427</v>
       </c>
       <c r="AJ11" t="n">
-        <v>1.907843860589914</v>
+        <v>1.907843860590209</v>
       </c>
       <c r="AK11" t="n">
-        <v>0.8448753006069332</v>
+        <v>0.8448753006064927</v>
       </c>
       <c r="AL11" t="n">
-        <v>2.147483381201715</v>
+        <v>2.147483381201462</v>
       </c>
       <c r="AM11" t="n">
-        <v>0.8354082947776841</v>
+        <v>0.8354082947780879</v>
       </c>
       <c r="AN11" t="n">
-        <v>0.628166116922143</v>
+        <v>0.6281661169222423</v>
       </c>
       <c r="AO11" t="n">
-        <v>0.8836425878976856</v>
+        <v>0.8836425878975206</v>
       </c>
       <c r="AP11" t="n">
-        <v>0.6106295521649311</v>
+        <v>0.6106295521634546</v>
       </c>
       <c r="AQ11" t="n">
-        <v>0.8918549569382451</v>
+        <v>0.8918549569382458</v>
       </c>
       <c r="AR11" t="n">
-        <v>0.1831690848691691</v>
+        <v>0.1831690848690598</v>
       </c>
       <c r="AS11" t="n">
-        <v>0.5933050776623786</v>
+        <v>0.5933050776623312</v>
       </c>
       <c r="AT11" t="n">
-        <v>0.4391301632406118</v>
+        <v>0.4391301632407593</v>
       </c>
     </row>
   </sheetData>
@@ -2176,7 +2176,7 @@
         <v>1.37716328476655</v>
       </c>
       <c r="Y2" t="n">
-        <v>5.508850674890465</v>
+        <v>5.509623789666398</v>
       </c>
       <c r="Z2" t="n">
         <v>6.695908434023812</v>
@@ -2236,7 +2236,7 @@
         <v>6.285402218862257</v>
       </c>
       <c r="AS2" t="n">
-        <v>1.249504219928895</v>
+        <v>1.251325031232374</v>
       </c>
       <c r="AT2" t="n">
         <v>10.17137594205893</v>
@@ -2250,7 +2250,7 @@
         <v>10.18507953959868</v>
       </c>
       <c r="D3" t="n">
-        <v>1.870704428407171</v>
+        <v>1.869377288393899</v>
       </c>
       <c r="E3" t="n">
         <v>1.373023925868985</v>
@@ -2524,7 +2524,7 @@
         <v>10.2233288589983</v>
       </c>
       <c r="D5" t="n">
-        <v>9.351133001050208</v>
+        <v>9.352460141063478</v>
       </c>
       <c r="E5" t="n">
         <v>6.869276460415098</v>
@@ -2688,7 +2688,7 @@
         <v>6.997707380767567</v>
       </c>
       <c r="M6" t="n">
-        <v>7.399852003030039</v>
+        <v>7.393026064463485</v>
       </c>
       <c r="N6" t="n">
         <v>7.578236745836343</v>
@@ -2721,7 +2721,7 @@
         <v>3.774801838330134</v>
       </c>
       <c r="X6" t="n">
-        <v>4.273845453179735</v>
+        <v>4.27169921475524</v>
       </c>
       <c r="Y6" t="n">
         <v>6.028724155248068</v>
@@ -2769,7 +2769,7 @@
         <v>8.615406190777753</v>
       </c>
       <c r="AN6" t="n">
-        <v>8.077780930896244</v>
+        <v>8.067702941772529</v>
       </c>
       <c r="AO6" t="n">
         <v>7.723477169462757</v>
@@ -2998,7 +2998,7 @@
         <v>4.228167827428215</v>
       </c>
       <c r="Y8" t="n">
-        <v>2.397284844394348</v>
+        <v>2.402924390005338</v>
       </c>
       <c r="Z8" t="n">
         <v>7.311971029542017</v>
@@ -3058,7 +3058,7 @@
         <v>5.157848235510317</v>
       </c>
       <c r="AS8" t="n">
-        <v>2.08926973545855</v>
+        <v>2.091655485937358</v>
       </c>
       <c r="AT8" t="n">
         <v>7.943429628160269</v>
@@ -3195,7 +3195,7 @@
         <v>8.269095395903902</v>
       </c>
       <c r="AS9" t="n">
-        <v>4.729037512679008</v>
+        <v>4.724959171709579</v>
       </c>
       <c r="AT9" t="n">
         <v>10.14282856343758</v>
@@ -3266,7 +3266,7 @@
         <v>9.023991001793956</v>
       </c>
       <c r="W10" t="n">
-        <v>0.6699532498647427</v>
+        <v>0.6472275846401878</v>
       </c>
       <c r="X10" t="n">
         <v>3.36935690587592</v>
@@ -3281,7 +3281,7 @@
         <v>7.15281267929394</v>
       </c>
       <c r="AB10" t="n">
-        <v>5.949990214847054</v>
+        <v>5.939179404036243</v>
       </c>
       <c r="AC10" t="n">
         <v>7.032371152606411</v>
@@ -3636,136 +3636,136 @@
         <v>7</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6341772057273846</v>
+        <v>0.6341772057315236</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6737638570943631</v>
+        <v>0.6737638570953381</v>
       </c>
       <c r="E2" t="n">
-        <v>0.4964874670774442</v>
+        <v>0.496487467077444</v>
       </c>
       <c r="F2" t="n">
-        <v>0.7036405699435606</v>
+        <v>0.703640569943795</v>
       </c>
       <c r="G2" t="n">
-        <v>0.5827653402166068</v>
+        <v>0.5827653402165855</v>
       </c>
       <c r="H2" t="n">
-        <v>0.6607112283194929</v>
+        <v>0.6607112283190225</v>
       </c>
       <c r="I2" t="n">
-        <v>0.5784383769668203</v>
+        <v>0.5784383769668087</v>
       </c>
       <c r="J2" t="n">
-        <v>0.6592122491606869</v>
+        <v>0.6592122491638331</v>
       </c>
       <c r="K2" t="n">
-        <v>0.5652859866513497</v>
+        <v>0.5652859866528857</v>
       </c>
       <c r="L2" t="n">
-        <v>0.6173675513165178</v>
+        <v>0.6173675513239805</v>
       </c>
       <c r="M2" t="n">
-        <v>0.5917827564495118</v>
+        <v>0.591782756452747</v>
       </c>
       <c r="N2" t="n">
-        <v>0.6456853786757413</v>
+        <v>0.6456853786818728</v>
       </c>
       <c r="O2" t="n">
-        <v>0.5822927095686407</v>
+        <v>0.5822927095686403</v>
       </c>
       <c r="P2" t="n">
-        <v>0.5687584729748316</v>
+        <v>0.5687584729748332</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.6757205615655771</v>
+        <v>0.6757205615621744</v>
       </c>
       <c r="R2" t="n">
-        <v>0.5675670334148061</v>
+        <v>0.5675670334133874</v>
       </c>
       <c r="S2" t="n">
-        <v>0.5833495461524201</v>
+        <v>0.5833495461521524</v>
       </c>
       <c r="T2" t="n">
-        <v>0.5734656427237547</v>
+        <v>0.57346564272379</v>
       </c>
       <c r="U2" t="n">
-        <v>0.5804205576330952</v>
+        <v>0.5804205576336414</v>
       </c>
       <c r="V2" t="n">
-        <v>0.591771883478892</v>
+        <v>0.5917718834926333</v>
       </c>
       <c r="W2" t="n">
-        <v>0.7128877868505129</v>
+        <v>0.7128877868576451</v>
       </c>
       <c r="X2" t="n">
-        <v>0.5530429972326244</v>
+        <v>0.5530429972326246</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.6908416384049003</v>
+        <v>0.6908416384072975</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.5714762880526186</v>
+        <v>0.5714762880526184</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.6325369936811199</v>
+        <v>0.632536993681141</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.6321268294536749</v>
+        <v>0.6321268294536073</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.6577720511201844</v>
+        <v>0.6577720511182301</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.6332653510399294</v>
+        <v>0.6332653510398429</v>
       </c>
       <c r="AE2" t="n">
-        <v>0.6536661908498648</v>
+        <v>0.6536661908495622</v>
       </c>
       <c r="AF2" t="n">
-        <v>0.638888912033737</v>
+        <v>0.6388889120336824</v>
       </c>
       <c r="AG2" t="n">
-        <v>0.6690693943444008</v>
+        <v>0.6690693943452</v>
       </c>
       <c r="AH2" t="n">
-        <v>0.6319626107749631</v>
+        <v>0.6319626107749302</v>
       </c>
       <c r="AI2" t="n">
-        <v>0.6348704662962779</v>
+        <v>0.6348704662962348</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0.6269535422601248</v>
+        <v>0.6269535422612975</v>
       </c>
       <c r="AK2" t="n">
-        <v>0.6127109878594013</v>
+        <v>0.6127109878594339</v>
       </c>
       <c r="AL2" t="n">
-        <v>0.6346123569959085</v>
+        <v>0.6346123569958967</v>
       </c>
       <c r="AM2" t="n">
-        <v>0.6070664015572557</v>
+        <v>0.6070664015596039</v>
       </c>
       <c r="AN2" t="n">
-        <v>0.6568131900897883</v>
+        <v>0.6568131900927269</v>
       </c>
       <c r="AO2" t="n">
-        <v>0.6188510484492595</v>
+        <v>0.6188510484439218</v>
       </c>
       <c r="AP2" t="n">
-        <v>0.6365818115864686</v>
+        <v>0.6365818115858679</v>
       </c>
       <c r="AQ2" t="n">
-        <v>0.6224732515972253</v>
+        <v>0.6224732515972153</v>
       </c>
       <c r="AR2" t="n">
-        <v>0.6336264713206555</v>
+        <v>0.6336264713206515</v>
       </c>
       <c r="AS2" t="n">
-        <v>0.5840885854300462</v>
+        <v>0.5840885854300464</v>
       </c>
       <c r="AT2" t="n">
-        <v>0.614408954950069</v>
+        <v>0.6144089549508791</v>
       </c>
     </row>
     <row r="3" spans="1:46">
@@ -3773,136 +3773,136 @@
         <v>8</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6884217949490313</v>
+        <v>0.6884217949499084</v>
       </c>
       <c r="D3" t="n">
-        <v>0.6414736066024277</v>
+        <v>0.6414736066061099</v>
       </c>
       <c r="E3" t="n">
-        <v>0.4985790470812212</v>
+        <v>0.4985790470812211</v>
       </c>
       <c r="F3" t="n">
-        <v>0.608907957739434</v>
+        <v>0.6089079577382555</v>
       </c>
       <c r="G3" t="n">
-        <v>0.5809046770284457</v>
+        <v>0.5809046770284793</v>
       </c>
       <c r="H3" t="n">
-        <v>0.5810080084264867</v>
+        <v>0.5810080084264848</v>
       </c>
       <c r="I3" t="n">
-        <v>0.5798047862886661</v>
+        <v>0.5798047862886659</v>
       </c>
       <c r="J3" t="n">
-        <v>0.6500721707567476</v>
+        <v>0.6500721707567116</v>
       </c>
       <c r="K3" t="n">
-        <v>0.5684480966998742</v>
+        <v>0.5684480966998922</v>
       </c>
       <c r="L3" t="n">
-        <v>0.5756686939824622</v>
+        <v>0.5756686939826313</v>
       </c>
       <c r="M3" t="n">
-        <v>0.5956116942847692</v>
+        <v>0.5956116942838017</v>
       </c>
       <c r="N3" t="n">
-        <v>0.699643959443355</v>
+        <v>0.6996439594431316</v>
       </c>
       <c r="O3" t="n">
-        <v>0.5741110559813751</v>
+        <v>0.5741110559813756</v>
       </c>
       <c r="P3" t="n">
-        <v>0.5797416092339381</v>
+        <v>0.5797416092339026</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.5759603139508173</v>
+        <v>0.5759603139506881</v>
       </c>
       <c r="R3" t="n">
-        <v>0.5830313298246983</v>
+        <v>0.5830313298246956</v>
       </c>
       <c r="S3" t="n">
-        <v>0.5690959978454805</v>
+        <v>0.5690959978454737</v>
       </c>
       <c r="T3" t="n">
-        <v>0.5660997711519905</v>
+        <v>0.566099771152007</v>
       </c>
       <c r="U3" t="n">
-        <v>0.599675057315459</v>
+        <v>0.5996750573153827</v>
       </c>
       <c r="V3" t="n">
-        <v>0.5944580332744415</v>
+        <v>0.5944580332744537</v>
       </c>
       <c r="W3" t="n">
-        <v>0.6804108894228621</v>
+        <v>0.6804108894216352</v>
       </c>
       <c r="X3" t="n">
-        <v>0.5530430033509659</v>
+        <v>0.5530430033509658</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.729436030976113</v>
+        <v>0.729436030976409</v>
       </c>
       <c r="Z3" t="n">
         <v>0.5704746810048514</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.6771820239638574</v>
+        <v>0.6771820239648811</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.6225433362683582</v>
+        <v>0.6225433362686961</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.5877870830494255</v>
+        <v>0.5877870830478611</v>
       </c>
       <c r="AD3" t="n">
-        <v>0.6299085864382609</v>
+        <v>0.6299085864382293</v>
       </c>
       <c r="AE3" t="n">
-        <v>0.62230982331496</v>
+        <v>0.6223098233150516</v>
       </c>
       <c r="AF3" t="n">
-        <v>0.6585335630661979</v>
+        <v>0.658533563064058</v>
       </c>
       <c r="AG3" t="n">
-        <v>0.6618196432552805</v>
+        <v>0.6618196432536951</v>
       </c>
       <c r="AH3" t="n">
-        <v>0.619597089368863</v>
+        <v>0.6195970893688628</v>
       </c>
       <c r="AI3" t="n">
-        <v>0.6668778883149021</v>
+        <v>0.6668778883146201</v>
       </c>
       <c r="AJ3" t="n">
-        <v>0.6348954055281145</v>
+        <v>0.6348954055281764</v>
       </c>
       <c r="AK3" t="n">
-        <v>0.6137094818840836</v>
+        <v>0.6137094818840738</v>
       </c>
       <c r="AL3" t="n">
-        <v>0.687823060896923</v>
+        <v>0.6878230608968319</v>
       </c>
       <c r="AM3" t="n">
-        <v>0.672006045003819</v>
+        <v>0.6720060450033423</v>
       </c>
       <c r="AN3" t="n">
-        <v>0.625163573362494</v>
+        <v>0.6251635733624809</v>
       </c>
       <c r="AO3" t="n">
-        <v>0.612308474355541</v>
+        <v>0.6123084743555786</v>
       </c>
       <c r="AP3" t="n">
-        <v>0.6259316940730545</v>
+        <v>0.6259316940729732</v>
       </c>
       <c r="AQ3" t="n">
-        <v>0.6708957571435743</v>
+        <v>0.6708957571429488</v>
       </c>
       <c r="AR3" t="n">
-        <v>0.6667454476672622</v>
+        <v>0.6667454476652951</v>
       </c>
       <c r="AS3" t="n">
         <v>0.584090419940126</v>
       </c>
       <c r="AT3" t="n">
-        <v>0.7079355807468796</v>
+        <v>0.7079355807461638</v>
       </c>
     </row>
     <row r="4" spans="1:46">
@@ -3910,136 +3910,136 @@
         <v>9</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5951853761454711</v>
+        <v>0.5951853761438227</v>
       </c>
       <c r="D4" t="n">
-        <v>0.6058709775485385</v>
+        <v>0.6058709775480449</v>
       </c>
       <c r="E4" t="n">
-        <v>0.496969414760958</v>
+        <v>0.4969694147609599</v>
       </c>
       <c r="F4" t="n">
-        <v>0.7739244914199745</v>
+        <v>0.7739244914199274</v>
       </c>
       <c r="G4" t="n">
-        <v>0.5741668667307933</v>
+        <v>0.5741668667308999</v>
       </c>
       <c r="H4" t="n">
-        <v>0.6167698774686478</v>
+        <v>0.6167698774627781</v>
       </c>
       <c r="I4" t="n">
-        <v>0.6718860807919053</v>
+        <v>0.6718860807901531</v>
       </c>
       <c r="J4" t="n">
-        <v>0.5805101938670757</v>
+        <v>0.5805101938669771</v>
       </c>
       <c r="K4" t="n">
-        <v>0.5759676769595172</v>
+        <v>0.575967676961807</v>
       </c>
       <c r="L4" t="n">
-        <v>0.6087792509566865</v>
+        <v>0.6087792509563387</v>
       </c>
       <c r="M4" t="n">
-        <v>0.6167929690717601</v>
+        <v>0.6167929690621939</v>
       </c>
       <c r="N4" t="n">
-        <v>0.6744231376767071</v>
+        <v>0.6744231376824914</v>
       </c>
       <c r="O4" t="n">
-        <v>0.5755846804503163</v>
+        <v>0.5755846804506654</v>
       </c>
       <c r="P4" t="n">
-        <v>0.5670862018736755</v>
+        <v>0.5670862018772559</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.6004949903537279</v>
+        <v>0.6004949903466978</v>
       </c>
       <c r="R4" t="n">
-        <v>0.7060514831286429</v>
+        <v>0.7060514831275282</v>
       </c>
       <c r="S4" t="n">
-        <v>0.6454229719639646</v>
+        <v>0.6454229719608874</v>
       </c>
       <c r="T4" t="n">
-        <v>0.5916737373833197</v>
+        <v>0.5916737373845999</v>
       </c>
       <c r="U4" t="n">
-        <v>0.611350701367989</v>
+        <v>0.6113507013650945</v>
       </c>
       <c r="V4" t="n">
-        <v>0.6195359398929621</v>
+        <v>0.6195359398898805</v>
       </c>
       <c r="W4" t="n">
-        <v>0.5926611445232133</v>
+        <v>0.5926611445253496</v>
       </c>
       <c r="X4" t="n">
-        <v>0.5530394951797907</v>
+        <v>0.5530394951797908</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.6351440274500741</v>
+        <v>0.6351440274502529</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.6094910727470605</v>
+        <v>0.6094910727470234</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.7225099333250466</v>
+        <v>0.7225099333252342</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.6211746638442901</v>
+        <v>0.6211746638442697</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.6410234566939796</v>
+        <v>0.6410234566845276</v>
       </c>
       <c r="AD4" t="n">
-        <v>0.6323046273587921</v>
+        <v>0.6323046273587939</v>
       </c>
       <c r="AE4" t="n">
-        <v>0.6778378193439153</v>
+        <v>0.6778378193425062</v>
       </c>
       <c r="AF4" t="n">
-        <v>0.6413812753955668</v>
+        <v>0.6413812753931587</v>
       </c>
       <c r="AG4" t="n">
-        <v>0.6260742556664833</v>
+        <v>0.6260742556664953</v>
       </c>
       <c r="AH4" t="n">
-        <v>0.6774989065213023</v>
+        <v>0.677498906521579</v>
       </c>
       <c r="AI4" t="n">
-        <v>0.6798937690534855</v>
+        <v>0.6798937690532627</v>
       </c>
       <c r="AJ4" t="n">
-        <v>0.6288394182452977</v>
+        <v>0.6288394182453261</v>
       </c>
       <c r="AK4" t="n">
-        <v>0.6246133053131321</v>
+        <v>0.6246133053101633</v>
       </c>
       <c r="AL4" t="n">
-        <v>0.6224940583636702</v>
+        <v>0.6224940583636704</v>
       </c>
       <c r="AM4" t="n">
-        <v>0.6149509088166029</v>
+        <v>0.6149509088166583</v>
       </c>
       <c r="AN4" t="n">
-        <v>0.6320296605362038</v>
+        <v>0.6320296605361898</v>
       </c>
       <c r="AO4" t="n">
-        <v>0.6192745085063893</v>
+        <v>0.6192745085063899</v>
       </c>
       <c r="AP4" t="n">
-        <v>0.6192128631752061</v>
+        <v>0.6192128631729098</v>
       </c>
       <c r="AQ4" t="n">
-        <v>0.611961774042487</v>
+        <v>0.6119617740422829</v>
       </c>
       <c r="AR4" t="n">
-        <v>0.6676557360784217</v>
+        <v>0.6676557360783878</v>
       </c>
       <c r="AS4" t="n">
-        <v>0.5836592864597732</v>
+        <v>0.5836592864598215</v>
       </c>
       <c r="AT4" t="n">
-        <v>0.634849198536948</v>
+        <v>0.6348491985361052</v>
       </c>
     </row>
     <row r="5" spans="1:46">
@@ -4047,136 +4047,136 @@
         <v>10</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6534899685019039</v>
+        <v>0.6534899685006952</v>
       </c>
       <c r="D5" t="n">
-        <v>0.6855857986995135</v>
+        <v>0.6855857987011549</v>
       </c>
       <c r="E5" t="n">
-        <v>0.5944586256872804</v>
+        <v>0.5944586256873016</v>
       </c>
       <c r="F5" t="n">
-        <v>0.7203269162849698</v>
+        <v>0.7203269162849621</v>
       </c>
       <c r="G5" t="n">
-        <v>0.6146893176658623</v>
+        <v>0.6146893176668469</v>
       </c>
       <c r="H5" t="n">
-        <v>0.6690433744206761</v>
+        <v>0.6690433744203531</v>
       </c>
       <c r="I5" t="n">
-        <v>0.5778931968472738</v>
+        <v>0.5778931968472618</v>
       </c>
       <c r="J5" t="n">
-        <v>0.6566383016209767</v>
+        <v>0.656638301621998</v>
       </c>
       <c r="K5" t="n">
-        <v>0.6144146758269305</v>
+        <v>0.6144146758268526</v>
       </c>
       <c r="L5" t="n">
-        <v>0.5820494765218103</v>
+        <v>0.5820494765217943</v>
       </c>
       <c r="M5" t="n">
-        <v>0.5836522254899652</v>
+        <v>0.5836522254900385</v>
       </c>
       <c r="N5" t="n">
-        <v>0.7209073581233436</v>
+        <v>0.7209073581234299</v>
       </c>
       <c r="O5" t="n">
-        <v>0.5837549505721178</v>
+        <v>0.5837549505721177</v>
       </c>
       <c r="P5" t="n">
-        <v>0.5869320052418975</v>
+        <v>0.5869320052418731</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.6661579859271014</v>
+        <v>0.6661579859269996</v>
       </c>
       <c r="R5" t="n">
-        <v>0.6059949942923246</v>
+        <v>0.6059949942914583</v>
       </c>
       <c r="S5" t="n">
-        <v>0.6763513555060944</v>
+        <v>0.6763513555064123</v>
       </c>
       <c r="T5" t="n">
-        <v>0.5824068263763843</v>
+        <v>0.5824068263763984</v>
       </c>
       <c r="U5" t="n">
-        <v>0.5915393975018071</v>
+        <v>0.5915393975017506</v>
       </c>
       <c r="V5" t="n">
-        <v>0.6580238824157488</v>
+        <v>0.6580238824157136</v>
       </c>
       <c r="W5" t="n">
-        <v>0.6962158983048053</v>
+        <v>0.696215898302749</v>
       </c>
       <c r="X5" t="n">
-        <v>0.5530060836488627</v>
+        <v>0.5530060836488631</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.7358181110169566</v>
+        <v>0.7358181110169029</v>
       </c>
       <c r="Z5" t="n">
         <v>0.5727653175951334</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.6565519553705533</v>
+        <v>0.6565519553704883</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.62891497915771</v>
+        <v>0.6289149791577114</v>
       </c>
       <c r="AC5" t="n">
-        <v>0.6553276852515192</v>
+        <v>0.6553276852491433</v>
       </c>
       <c r="AD5" t="n">
-        <v>0.6076205899390598</v>
+        <v>0.6076205899368348</v>
       </c>
       <c r="AE5" t="n">
-        <v>0.6101058228245253</v>
+        <v>0.6101058228238552</v>
       </c>
       <c r="AF5" t="n">
-        <v>0.6354856912337693</v>
+        <v>0.635485691233787</v>
       </c>
       <c r="AG5" t="n">
-        <v>0.6149789076752725</v>
+        <v>0.6149789076799936</v>
       </c>
       <c r="AH5" t="n">
-        <v>0.6207345591324628</v>
+        <v>0.6207345591326773</v>
       </c>
       <c r="AI5" t="n">
-        <v>0.7030880053243721</v>
+        <v>0.7030880053293205</v>
       </c>
       <c r="AJ5" t="n">
-        <v>0.6317607664247971</v>
+        <v>0.6317607664247951</v>
       </c>
       <c r="AK5" t="n">
-        <v>0.6266945883842382</v>
+        <v>0.626694588381622</v>
       </c>
       <c r="AL5" t="n">
-        <v>0.6210924147836578</v>
+        <v>0.6210924147835715</v>
       </c>
       <c r="AM5" t="n">
-        <v>0.6186387596223915</v>
+        <v>0.6186387596227685</v>
       </c>
       <c r="AN5" t="n">
-        <v>0.6346719159375959</v>
+        <v>0.6346719159379205</v>
       </c>
       <c r="AO5" t="n">
-        <v>0.6063219240063557</v>
+        <v>0.606321924006865</v>
       </c>
       <c r="AP5" t="n">
-        <v>0.6086828353512815</v>
+        <v>0.6086828353458532</v>
       </c>
       <c r="AQ5" t="n">
-        <v>0.6438140883841582</v>
+        <v>0.643814088384118</v>
       </c>
       <c r="AR5" t="n">
-        <v>0.6591479093319509</v>
+        <v>0.6591479093352005</v>
       </c>
       <c r="AS5" t="n">
-        <v>0.5832541577389856</v>
+        <v>0.5832541577389799</v>
       </c>
       <c r="AT5" t="n">
-        <v>0.6671092280651713</v>
+        <v>0.6671092280652966</v>
       </c>
     </row>
     <row r="6" spans="1:46">
@@ -4184,136 +4184,136 @@
         <v>11</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5838521139622223</v>
+        <v>0.5838521139672022</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6143353261459238</v>
+        <v>0.6143353261457618</v>
       </c>
       <c r="E6" t="n">
         <v>0.4979668729606015</v>
       </c>
       <c r="F6" t="n">
-        <v>0.7334386209700527</v>
+        <v>0.7334386209703664</v>
       </c>
       <c r="G6" t="n">
-        <v>0.57802353980998</v>
+        <v>0.5780235398099767</v>
       </c>
       <c r="H6" t="n">
-        <v>0.5815774811425783</v>
+        <v>0.5815774811425373</v>
       </c>
       <c r="I6" t="n">
-        <v>0.5729910651864555</v>
+        <v>0.5729910651864543</v>
       </c>
       <c r="J6" t="n">
-        <v>0.5972592175223023</v>
+        <v>0.5972592175195801</v>
       </c>
       <c r="K6" t="n">
-        <v>0.6223803615583968</v>
+        <v>0.622380361557491</v>
       </c>
       <c r="L6" t="n">
-        <v>0.6164690745486063</v>
+        <v>0.6164690745423236</v>
       </c>
       <c r="M6" t="n">
-        <v>0.568321996190706</v>
+        <v>0.5683219961907054</v>
       </c>
       <c r="N6" t="n">
-        <v>0.707941821307516</v>
+        <v>0.707941821308806</v>
       </c>
       <c r="O6" t="n">
-        <v>0.5806697188031935</v>
+        <v>0.5806697188031311</v>
       </c>
       <c r="P6" t="n">
-        <v>0.5697279095054957</v>
+        <v>0.5697279095047537</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.6297891831796973</v>
+        <v>0.6297891831821277</v>
       </c>
       <c r="R6" t="n">
-        <v>0.570138538532221</v>
+        <v>0.5701385385330912</v>
       </c>
       <c r="S6" t="n">
-        <v>0.5827518166541789</v>
+        <v>0.5827518166541693</v>
       </c>
       <c r="T6" t="n">
-        <v>0.6935817561251088</v>
+        <v>0.6935817561272863</v>
       </c>
       <c r="U6" t="n">
-        <v>0.5774941331780086</v>
+        <v>0.5774941331780687</v>
       </c>
       <c r="V6" t="n">
-        <v>0.5614560245460909</v>
+        <v>0.5614560245460902</v>
       </c>
       <c r="W6" t="n">
-        <v>0.6569017743890188</v>
+        <v>0.6569017743910427</v>
       </c>
       <c r="X6" t="n">
-        <v>0.5530430406679198</v>
+        <v>0.5530430406679202</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.7480675388595426</v>
+        <v>0.7480675388594642</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.5718512745875249</v>
+        <v>0.5718512745875248</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.6254976104520676</v>
+        <v>0.6254976104520713</v>
       </c>
       <c r="AB6" t="n">
-        <v>0.6157524770689573</v>
+        <v>0.6157524770688516</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.6424523515749965</v>
+        <v>0.6424523515717366</v>
       </c>
       <c r="AD6" t="n">
-        <v>0.6126822440550951</v>
+        <v>0.6126822440551404</v>
       </c>
       <c r="AE6" t="n">
-        <v>0.7082897161907905</v>
+        <v>0.7082897161906018</v>
       </c>
       <c r="AF6" t="n">
-        <v>0.6221812244619114</v>
+        <v>0.6221812244623092</v>
       </c>
       <c r="AG6" t="n">
-        <v>0.6204036231798599</v>
+        <v>0.6204036231776995</v>
       </c>
       <c r="AH6" t="n">
-        <v>0.6179902664705665</v>
+        <v>0.6179902664705702</v>
       </c>
       <c r="AI6" t="n">
-        <v>0.698094517114534</v>
+        <v>0.6980945171124437</v>
       </c>
       <c r="AJ6" t="n">
-        <v>0.6269275670835762</v>
+        <v>0.6269275670835742</v>
       </c>
       <c r="AK6" t="n">
-        <v>0.6001426378369465</v>
+        <v>0.6001426378369202</v>
       </c>
       <c r="AL6" t="n">
-        <v>0.6661096919145671</v>
+        <v>0.6661096919151592</v>
       </c>
       <c r="AM6" t="n">
-        <v>0.6451902311282344</v>
+        <v>0.6451902311282153</v>
       </c>
       <c r="AN6" t="n">
-        <v>0.6083280726385428</v>
+        <v>0.608328072638412</v>
       </c>
       <c r="AO6" t="n">
-        <v>0.6106361331302673</v>
+        <v>0.6106361331302592</v>
       </c>
       <c r="AP6" t="n">
-        <v>0.625192191196725</v>
+        <v>0.6251921911967229</v>
       </c>
       <c r="AQ6" t="n">
-        <v>0.5942147417263319</v>
+        <v>0.5942147417263562</v>
       </c>
       <c r="AR6" t="n">
-        <v>0.6537188207369173</v>
+        <v>0.6537188207371319</v>
       </c>
       <c r="AS6" t="n">
-        <v>0.5840887294729279</v>
+        <v>0.5840887294729271</v>
       </c>
       <c r="AT6" t="n">
-        <v>0.6671526539926743</v>
+        <v>0.6671526539917401</v>
       </c>
     </row>
     <row r="7" spans="1:46">
@@ -4321,136 +4321,136 @@
         <v>12</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6085406826633754</v>
+        <v>0.6085406826679279</v>
       </c>
       <c r="D7" t="n">
-        <v>0.6596823748551141</v>
+        <v>0.6596823748559539</v>
       </c>
       <c r="E7" t="n">
-        <v>0.5182357528730975</v>
+        <v>0.5182357528731071</v>
       </c>
       <c r="F7" t="n">
-        <v>0.7147734259753729</v>
+        <v>0.7147734259751886</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6222593849461201</v>
+        <v>0.6222593849465381</v>
       </c>
       <c r="H7" t="n">
-        <v>0.5812926165780423</v>
+        <v>0.581292616578042</v>
       </c>
       <c r="I7" t="n">
-        <v>0.5747511525673884</v>
+        <v>0.5747511525675081</v>
       </c>
       <c r="J7" t="n">
-        <v>0.6001833279844704</v>
+        <v>0.6001833279792217</v>
       </c>
       <c r="K7" t="n">
-        <v>0.6276297324267088</v>
+        <v>0.6276297324269691</v>
       </c>
       <c r="L7" t="n">
-        <v>0.5803213128397628</v>
+        <v>0.580321312839715</v>
       </c>
       <c r="M7" t="n">
-        <v>0.5808426446730958</v>
+        <v>0.5808426446726378</v>
       </c>
       <c r="N7" t="n">
-        <v>0.5746068941087168</v>
+        <v>0.5746068941085617</v>
       </c>
       <c r="O7" t="n">
-        <v>0.6332789620198099</v>
+        <v>0.6332789620201087</v>
       </c>
       <c r="P7" t="n">
-        <v>0.6055637824786142</v>
+        <v>0.605563782478687</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.6582813447007314</v>
+        <v>0.6582813447012227</v>
       </c>
       <c r="R7" t="n">
-        <v>0.7250912226112645</v>
+        <v>0.7250912226112726</v>
       </c>
       <c r="S7" t="n">
-        <v>0.5794051012403914</v>
+        <v>0.5794051012403936</v>
       </c>
       <c r="T7" t="n">
-        <v>0.563898816352135</v>
+        <v>0.563898816352094</v>
       </c>
       <c r="U7" t="n">
-        <v>0.6998929972562595</v>
+        <v>0.6998929972569272</v>
       </c>
       <c r="V7" t="n">
-        <v>0.6541982355520221</v>
+        <v>0.6541982355516269</v>
       </c>
       <c r="W7" t="n">
-        <v>0.5815211712310101</v>
+        <v>0.5815211712309549</v>
       </c>
       <c r="X7" t="n">
-        <v>0.55300162955334</v>
+        <v>0.5530016295533315</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.6872058462746866</v>
+        <v>0.6872058462768134</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.7109032815354069</v>
+        <v>0.7109032815355044</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.717844612684709</v>
+        <v>0.7178446126847956</v>
       </c>
       <c r="AB7" t="n">
-        <v>0.6259038973542358</v>
+        <v>0.6259038973542315</v>
       </c>
       <c r="AC7" t="n">
-        <v>0.6232442085745492</v>
+        <v>0.6232442085777358</v>
       </c>
       <c r="AD7" t="n">
-        <v>0.6285662468267009</v>
+        <v>0.6285662468309926</v>
       </c>
       <c r="AE7" t="n">
-        <v>0.6306353803232383</v>
+        <v>0.6306353803232971</v>
       </c>
       <c r="AF7" t="n">
-        <v>0.6116001785263168</v>
+        <v>0.6116001785259566</v>
       </c>
       <c r="AG7" t="n">
-        <v>0.6275087181756168</v>
+        <v>0.6275087181775441</v>
       </c>
       <c r="AH7" t="n">
-        <v>0.6234872085693176</v>
+        <v>0.6234872085692201</v>
       </c>
       <c r="AI7" t="n">
-        <v>0.6566856563382523</v>
+        <v>0.6566856563394573</v>
       </c>
       <c r="AJ7" t="n">
-        <v>0.6806523888774988</v>
+        <v>0.6806523888787511</v>
       </c>
       <c r="AK7" t="n">
-        <v>0.6453198215517987</v>
+        <v>0.6453198215480634</v>
       </c>
       <c r="AL7" t="n">
-        <v>0.6121130994383062</v>
+        <v>0.6121130994381199</v>
       </c>
       <c r="AM7" t="n">
-        <v>0.7178056920625628</v>
+        <v>0.7178056920655722</v>
       </c>
       <c r="AN7" t="n">
-        <v>0.6206946043362533</v>
+        <v>0.620694604349071</v>
       </c>
       <c r="AO7" t="n">
-        <v>0.6585106895443644</v>
+        <v>0.6585106895442636</v>
       </c>
       <c r="AP7" t="n">
         <v>0.6107321089488692</v>
       </c>
       <c r="AQ7" t="n">
-        <v>0.6045839634330304</v>
+        <v>0.6045839634330771</v>
       </c>
       <c r="AR7" t="n">
-        <v>0.7015832505742744</v>
+        <v>0.7015832505741959</v>
       </c>
       <c r="AS7" t="n">
-        <v>0.5840734613327313</v>
+        <v>0.5840734613327367</v>
       </c>
       <c r="AT7" t="n">
-        <v>0.6936491509078553</v>
+        <v>0.6936491509123961</v>
       </c>
     </row>
     <row r="8" spans="1:46">
@@ -4458,136 +4458,136 @@
         <v>13</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7143695158586607</v>
+        <v>0.7143695158610681</v>
       </c>
       <c r="D8" t="n">
-        <v>0.737261805658093</v>
+        <v>0.7372618056579398</v>
       </c>
       <c r="E8" t="n">
-        <v>0.498378338447228</v>
+        <v>0.4983783384472279</v>
       </c>
       <c r="F8" t="n">
-        <v>0.7412571808304592</v>
+        <v>0.7412571808304652</v>
       </c>
       <c r="G8" t="n">
-        <v>0.5824260100783903</v>
+        <v>0.5824260100779681</v>
       </c>
       <c r="H8" t="n">
-        <v>0.6348283334111881</v>
+        <v>0.63482833341329</v>
       </c>
       <c r="I8" t="n">
-        <v>0.5757490711068119</v>
+        <v>0.5757490711068088</v>
       </c>
       <c r="J8" t="n">
-        <v>0.599556143066631</v>
+        <v>0.5995561430687719</v>
       </c>
       <c r="K8" t="n">
-        <v>0.5747550319978244</v>
+        <v>0.5747550319976823</v>
       </c>
       <c r="L8" t="n">
-        <v>0.6199566208837249</v>
+        <v>0.6199566208854492</v>
       </c>
       <c r="M8" t="n">
-        <v>0.6868524386982219</v>
+        <v>0.6868524386969233</v>
       </c>
       <c r="N8" t="n">
-        <v>0.5935659472529246</v>
+        <v>0.5935659472507347</v>
       </c>
       <c r="O8" t="n">
-        <v>0.5771160583171564</v>
+        <v>0.577116058317155</v>
       </c>
       <c r="P8" t="n">
-        <v>0.6245417724984962</v>
+        <v>0.6245417724984025</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.5791603844707158</v>
+        <v>0.5791603844706997</v>
       </c>
       <c r="R8" t="n">
-        <v>0.5741076128819957</v>
+        <v>0.5741076128819959</v>
       </c>
       <c r="S8" t="n">
-        <v>0.5700838781895468</v>
+        <v>0.5700838781895469</v>
       </c>
       <c r="T8" t="n">
         <v>0.5668011909241953</v>
       </c>
       <c r="U8" t="n">
-        <v>0.5754279483329656</v>
+        <v>0.5754279483329982</v>
       </c>
       <c r="V8" t="n">
-        <v>0.5929268257702713</v>
+        <v>0.5929268257703056</v>
       </c>
       <c r="W8" t="n">
-        <v>0.6779576688231639</v>
+        <v>0.677957668822716</v>
       </c>
       <c r="X8" t="n">
-        <v>0.5530429697738725</v>
+        <v>0.5530429697738719</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.7289619476232918</v>
+        <v>0.7289619476226613</v>
       </c>
       <c r="Z8" t="n">
         <v>0.5708130668488649</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.6223940540062963</v>
+        <v>0.6223940540062047</v>
       </c>
       <c r="AB8" t="n">
-        <v>0.6254695581570169</v>
+        <v>0.6254695581572929</v>
       </c>
       <c r="AC8" t="n">
-        <v>0.7048489165003614</v>
+        <v>0.7048489164982966</v>
       </c>
       <c r="AD8" t="n">
-        <v>0.6118257171290641</v>
+        <v>0.6118257171296541</v>
       </c>
       <c r="AE8" t="n">
-        <v>0.6272238524958963</v>
+        <v>0.6272238524954435</v>
       </c>
       <c r="AF8" t="n">
-        <v>0.6253230995842108</v>
+        <v>0.6253230995841177</v>
       </c>
       <c r="AG8" t="n">
-        <v>0.6177688400096323</v>
+        <v>0.6177688400094559</v>
       </c>
       <c r="AH8" t="n">
-        <v>0.63614501033771</v>
+        <v>0.6361450103376629</v>
       </c>
       <c r="AI8" t="n">
-        <v>0.6217632176349959</v>
+        <v>0.6217632176349551</v>
       </c>
       <c r="AJ8" t="n">
-        <v>0.6298161808842647</v>
+        <v>0.6298161808841927</v>
       </c>
       <c r="AK8" t="n">
-        <v>0.6234147681951884</v>
+        <v>0.6234147681938295</v>
       </c>
       <c r="AL8" t="n">
-        <v>0.6587649064280385</v>
+        <v>0.6587649064279192</v>
       </c>
       <c r="AM8" t="n">
-        <v>0.6181133282401854</v>
+        <v>0.6181133282401473</v>
       </c>
       <c r="AN8" t="n">
-        <v>0.6210798158947375</v>
+        <v>0.6210798158946872</v>
       </c>
       <c r="AO8" t="n">
-        <v>0.6278656050669315</v>
+        <v>0.6278656050671704</v>
       </c>
       <c r="AP8" t="n">
-        <v>0.6380292467026806</v>
+        <v>0.6380292467027895</v>
       </c>
       <c r="AQ8" t="n">
-        <v>0.6845780941860944</v>
+        <v>0.6845780941848651</v>
       </c>
       <c r="AR8" t="n">
-        <v>0.6274432318396721</v>
+        <v>0.6274432318395377</v>
       </c>
       <c r="AS8" t="n">
-        <v>0.5840889374417267</v>
+        <v>0.5840889374417265</v>
       </c>
       <c r="AT8" t="n">
-        <v>0.7472392281366735</v>
+        <v>0.7472392281364807</v>
       </c>
     </row>
     <row r="9" spans="1:46">
@@ -4595,136 +4595,136 @@
         <v>14</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6663597312291912</v>
+        <v>0.6663597312277912</v>
       </c>
       <c r="D9" t="n">
-        <v>0.7274723508067777</v>
+        <v>0.727472350806596</v>
       </c>
       <c r="E9" t="n">
-        <v>0.5945127665355858</v>
+        <v>0.5945127665355842</v>
       </c>
       <c r="F9" t="n">
-        <v>0.6862386748418369</v>
+        <v>0.6862386748420047</v>
       </c>
       <c r="G9" t="n">
-        <v>0.6351734949250137</v>
+        <v>0.6351734949212023</v>
       </c>
       <c r="H9" t="n">
-        <v>0.5825193620377415</v>
+        <v>0.5825193620377417</v>
       </c>
       <c r="I9" t="n">
-        <v>0.6565304438853201</v>
+        <v>0.6565304438853119</v>
       </c>
       <c r="J9" t="n">
-        <v>0.5818303725458565</v>
+        <v>0.5818303725458486</v>
       </c>
       <c r="K9" t="n">
-        <v>0.6717898634505028</v>
+        <v>0.6717898634501985</v>
       </c>
       <c r="L9" t="n">
-        <v>0.6682069918153349</v>
+        <v>0.6682069918174844</v>
       </c>
       <c r="M9" t="n">
-        <v>0.6654988750600591</v>
+        <v>0.665498875060474</v>
       </c>
       <c r="N9" t="n">
-        <v>0.5994733210403472</v>
+        <v>0.5994733210405294</v>
       </c>
       <c r="O9" t="n">
-        <v>0.5763164041287039</v>
+        <v>0.5763164041287016</v>
       </c>
       <c r="P9" t="n">
-        <v>0.5714449946913109</v>
+        <v>0.5714449946913013</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.6889422350902019</v>
+        <v>0.6889422350901891</v>
       </c>
       <c r="R9" t="n">
-        <v>0.67857632042418</v>
+        <v>0.6785763204241523</v>
       </c>
       <c r="S9" t="n">
-        <v>0.580506858352752</v>
+        <v>0.5805068583527536</v>
       </c>
       <c r="T9" t="n">
-        <v>0.5616292670179517</v>
+        <v>0.5616292670179522</v>
       </c>
       <c r="U9" t="n">
-        <v>0.6320024099176382</v>
+        <v>0.6320024099178219</v>
       </c>
       <c r="V9" t="n">
-        <v>0.567523757634902</v>
+        <v>0.5675237576349015</v>
       </c>
       <c r="W9" t="n">
-        <v>0.5683434333332129</v>
+        <v>0.5683434333332131</v>
       </c>
       <c r="X9" t="n">
-        <v>0.5529276950386798</v>
+        <v>0.5529276950386796</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.6789283624399894</v>
+        <v>0.6789283624403538</v>
       </c>
       <c r="Z9" t="n">
-        <v>0.5720237223938129</v>
+        <v>0.5720237223938053</v>
       </c>
       <c r="AA9" t="n">
-        <v>0.6254803815979842</v>
+        <v>0.6254803815979828</v>
       </c>
       <c r="AB9" t="n">
-        <v>0.6900893187632693</v>
+        <v>0.6900893187636619</v>
       </c>
       <c r="AC9" t="n">
-        <v>0.6245374739353484</v>
+        <v>0.6245374739353782</v>
       </c>
       <c r="AD9" t="n">
-        <v>0.6271951021535275</v>
+        <v>0.6271951021535154</v>
       </c>
       <c r="AE9" t="n">
-        <v>0.6258747734668476</v>
+        <v>0.6258747734668556</v>
       </c>
       <c r="AF9" t="n">
-        <v>0.6518958171169743</v>
+        <v>0.6518958171170214</v>
       </c>
       <c r="AG9" t="n">
-        <v>0.7189303513011711</v>
+        <v>0.7189303513015473</v>
       </c>
       <c r="AH9" t="n">
-        <v>0.6356034931009475</v>
+        <v>0.6356034931012752</v>
       </c>
       <c r="AI9" t="n">
-        <v>0.695697794602617</v>
+        <v>0.6956977946025609</v>
       </c>
       <c r="AJ9" t="n">
-        <v>0.6195732675208885</v>
+        <v>0.6195732675208881</v>
       </c>
       <c r="AK9" t="n">
-        <v>0.6115097119156214</v>
+        <v>0.6115097119156193</v>
       </c>
       <c r="AL9" t="n">
-        <v>0.6170187890431411</v>
+        <v>0.6170187890431519</v>
       </c>
       <c r="AM9" t="n">
-        <v>0.6387481376398022</v>
+        <v>0.6387481376397304</v>
       </c>
       <c r="AN9" t="n">
-        <v>0.6190136763176703</v>
+        <v>0.6190136763176575</v>
       </c>
       <c r="AO9" t="n">
-        <v>0.6701190404566817</v>
+        <v>0.6701190404563865</v>
       </c>
       <c r="AP9" t="n">
-        <v>0.7137216134879445</v>
+        <v>0.7137216134887097</v>
       </c>
       <c r="AQ9" t="n">
-        <v>0.5989621908295549</v>
+        <v>0.5989621908295364</v>
       </c>
       <c r="AR9" t="n">
-        <v>0.6678788795806976</v>
+        <v>0.6678788795800037</v>
       </c>
       <c r="AS9" t="n">
-        <v>0.5840681980435251</v>
+        <v>0.5840681980435247</v>
       </c>
       <c r="AT9" t="n">
-        <v>0.6223910964779689</v>
+        <v>0.6223910964757562</v>
       </c>
     </row>
     <row r="10" spans="1:46">
@@ -4732,136 +4732,136 @@
         <v>15</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8047136526592876</v>
+        <v>0.8047136526579241</v>
       </c>
       <c r="D10" t="n">
-        <v>0.7809467500973231</v>
+        <v>0.7809467501000389</v>
       </c>
       <c r="E10" t="n">
         <v>0.4974106526114564</v>
       </c>
       <c r="F10" t="n">
-        <v>0.5645682220593343</v>
+        <v>0.56456822206012</v>
       </c>
       <c r="G10" t="n">
-        <v>0.5794783903269488</v>
+        <v>0.5794783903240437</v>
       </c>
       <c r="H10" t="n">
-        <v>0.5808695084308548</v>
+        <v>0.5808695084304329</v>
       </c>
       <c r="I10" t="n">
-        <v>0.6504015655850598</v>
+        <v>0.6504015655761977</v>
       </c>
       <c r="J10" t="n">
-        <v>0.5707441855382169</v>
+        <v>0.5707441855382482</v>
       </c>
       <c r="K10" t="n">
-        <v>0.5813495943122435</v>
+        <v>0.5813495943120875</v>
       </c>
       <c r="L10" t="n">
-        <v>0.5808604051888254</v>
+        <v>0.5808604051887645</v>
       </c>
       <c r="M10" t="n">
-        <v>0.5752953547907848</v>
+        <v>0.5752953547908144</v>
       </c>
       <c r="N10" t="n">
-        <v>0.6945114640303277</v>
+        <v>0.6945114640301692</v>
       </c>
       <c r="O10" t="n">
-        <v>0.5718434870305102</v>
+        <v>0.5718434870303609</v>
       </c>
       <c r="P10" t="n">
-        <v>0.6203267453214774</v>
+        <v>0.6203267453326745</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.5733147056171609</v>
+        <v>0.5733147056171563</v>
       </c>
       <c r="R10" t="n">
-        <v>0.5706324428041181</v>
+        <v>0.5706324428044525</v>
       </c>
       <c r="S10" t="n">
-        <v>0.6214463148900645</v>
+        <v>0.6214463149056682</v>
       </c>
       <c r="T10" t="n">
-        <v>0.5794804121186391</v>
+        <v>0.5794804121192265</v>
       </c>
       <c r="U10" t="n">
-        <v>0.6079132657531243</v>
+        <v>0.6079132657287477</v>
       </c>
       <c r="V10" t="n">
-        <v>0.6913718796969037</v>
+        <v>0.6913718797047833</v>
       </c>
       <c r="W10" t="n">
-        <v>0.6370319494840644</v>
+        <v>0.6370319494279857</v>
       </c>
       <c r="X10" t="n">
-        <v>0.5530420831006797</v>
+        <v>0.5530420831006819</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.7502224728671063</v>
+        <v>0.7502224728655948</v>
       </c>
       <c r="Z10" t="n">
-        <v>0.5711834158285288</v>
+        <v>0.5711834158284819</v>
       </c>
       <c r="AA10" t="n">
-        <v>0.6502853447902347</v>
+        <v>0.6502853447849529</v>
       </c>
       <c r="AB10" t="n">
-        <v>0.6182094288459814</v>
+        <v>0.6182094288455833</v>
       </c>
       <c r="AC10" t="n">
-        <v>0.7060302431590894</v>
+        <v>0.7060302431653096</v>
       </c>
       <c r="AD10" t="n">
-        <v>0.619262679731226</v>
+        <v>0.6192626797321601</v>
       </c>
       <c r="AE10" t="n">
-        <v>0.7180888327080799</v>
+        <v>0.7180888327086159</v>
       </c>
       <c r="AF10" t="n">
-        <v>0.6299554638389514</v>
+        <v>0.6299554638385448</v>
       </c>
       <c r="AG10" t="n">
-        <v>0.6247782608340268</v>
+        <v>0.6247782607990212</v>
       </c>
       <c r="AH10" t="n">
-        <v>0.6223208570453896</v>
+        <v>0.6223208570452919</v>
       </c>
       <c r="AI10" t="n">
-        <v>0.6108118191049171</v>
+        <v>0.610811819109661</v>
       </c>
       <c r="AJ10" t="n">
-        <v>0.6260251477665516</v>
+        <v>0.6260251477671391</v>
       </c>
       <c r="AK10" t="n">
-        <v>0.6915956391782949</v>
+        <v>0.6915956391918108</v>
       </c>
       <c r="AL10" t="n">
-        <v>0.7469305828299313</v>
+        <v>0.7469305828207226</v>
       </c>
       <c r="AM10" t="n">
-        <v>0.6164427115757124</v>
+        <v>0.6164427115757012</v>
       </c>
       <c r="AN10" t="n">
-        <v>0.6264715527560731</v>
+        <v>0.6264715527564239</v>
       </c>
       <c r="AO10" t="n">
-        <v>0.6046164555960991</v>
+        <v>0.6046164555961555</v>
       </c>
       <c r="AP10" t="n">
-        <v>0.6515242949136665</v>
+        <v>0.6515242949132432</v>
       </c>
       <c r="AQ10" t="n">
-        <v>0.6079788729939416</v>
+        <v>0.6079788729939988</v>
       </c>
       <c r="AR10" t="n">
-        <v>0.6764419347645227</v>
+        <v>0.6764419347090509</v>
       </c>
       <c r="AS10" t="n">
-        <v>0.584089906754753</v>
+        <v>0.5840899067547491</v>
       </c>
       <c r="AT10" t="n">
-        <v>0.7556662927818363</v>
+        <v>0.7556662927773922</v>
       </c>
     </row>
     <row r="11" spans="1:46">
@@ -4869,136 +4869,136 @@
         <v>16</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6849275041490285</v>
+        <v>0.6849275041490273</v>
       </c>
       <c r="D11" t="n">
-        <v>0.7557740439141893</v>
+        <v>0.7557740439141413</v>
       </c>
       <c r="E11" t="n">
-        <v>0.5089391272833312</v>
+        <v>0.5089391272833294</v>
       </c>
       <c r="F11" t="n">
-        <v>0.5933235695462353</v>
+        <v>0.5933235695462376</v>
       </c>
       <c r="G11" t="n">
-        <v>0.5853909599031577</v>
+        <v>0.5853909599032353</v>
       </c>
       <c r="H11" t="n">
-        <v>0.6613353033042422</v>
+        <v>0.6613353033046251</v>
       </c>
       <c r="I11" t="n">
-        <v>0.6019512106904121</v>
+        <v>0.6019512106904162</v>
       </c>
       <c r="J11" t="n">
-        <v>0.6145434577726347</v>
+        <v>0.61454345777259</v>
       </c>
       <c r="K11" t="n">
-        <v>0.579566992967129</v>
+        <v>0.5795669929671291</v>
       </c>
       <c r="L11" t="n">
-        <v>0.5725218339087489</v>
+        <v>0.5725218339088146</v>
       </c>
       <c r="M11" t="n">
-        <v>0.5759930175723234</v>
+        <v>0.5759930175723181</v>
       </c>
       <c r="N11" t="n">
-        <v>0.6415522070487555</v>
+        <v>0.6415522070488019</v>
       </c>
       <c r="O11" t="n">
         <v>0.5767431232489386</v>
       </c>
       <c r="P11" t="n">
-        <v>0.5702975548614849</v>
+        <v>0.5702975548614851</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.6229899834816705</v>
+        <v>0.6229899834816764</v>
       </c>
       <c r="R11" t="n">
-        <v>0.560917144957686</v>
+        <v>0.5609171449576863</v>
       </c>
       <c r="S11" t="n">
-        <v>0.5858961622652988</v>
+        <v>0.5858961622653208</v>
       </c>
       <c r="T11" t="n">
-        <v>0.6746631587659639</v>
+        <v>0.6746631587659715</v>
       </c>
       <c r="U11" t="n">
-        <v>0.5860163472496461</v>
+        <v>0.5860163472496789</v>
       </c>
       <c r="V11" t="n">
-        <v>0.5813863785572617</v>
+        <v>0.5813863785572791</v>
       </c>
       <c r="W11" t="n">
-        <v>0.7619955688942515</v>
+        <v>0.761995568894261</v>
       </c>
       <c r="X11" t="n">
-        <v>0.595246783606427</v>
+        <v>0.595246783606399</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.7599009571885426</v>
+        <v>0.7599009571884709</v>
       </c>
       <c r="Z11" t="n">
-        <v>0.5905500996362515</v>
+        <v>0.5905500996362516</v>
       </c>
       <c r="AA11" t="n">
-        <v>0.6367896664397341</v>
+        <v>0.6367896664396938</v>
       </c>
       <c r="AB11" t="n">
-        <v>0.6194962971631186</v>
+        <v>0.6194962971631198</v>
       </c>
       <c r="AC11" t="n">
-        <v>0.6245442521298894</v>
+        <v>0.6245442521297325</v>
       </c>
       <c r="AD11" t="n">
-        <v>0.6295482420641629</v>
+        <v>0.6295482420641662</v>
       </c>
       <c r="AE11" t="n">
-        <v>0.6288274471697513</v>
+        <v>0.6288274471693065</v>
       </c>
       <c r="AF11" t="n">
-        <v>0.6558792786342785</v>
+        <v>0.6558792786339308</v>
       </c>
       <c r="AG11" t="n">
-        <v>0.619281647901303</v>
+        <v>0.6192816479012988</v>
       </c>
       <c r="AH11" t="n">
-        <v>0.7458602412443791</v>
+        <v>0.7458602412446536</v>
       </c>
       <c r="AI11" t="n">
-        <v>0.6189630057737151</v>
+        <v>0.6189630057737167</v>
       </c>
       <c r="AJ11" t="n">
-        <v>0.6139193778976807</v>
+        <v>0.6139193778976723</v>
       </c>
       <c r="AK11" t="n">
-        <v>0.6612871021055111</v>
+        <v>0.6612871021054866</v>
       </c>
       <c r="AL11" t="n">
-        <v>0.6260416507283396</v>
+        <v>0.6260416507283324</v>
       </c>
       <c r="AM11" t="n">
-        <v>0.6118269715354085</v>
+        <v>0.6118269715353978</v>
       </c>
       <c r="AN11" t="n">
-        <v>0.6213738836677064</v>
+        <v>0.6213738836676983</v>
       </c>
       <c r="AO11" t="n">
-        <v>0.7481480976363027</v>
+        <v>0.7481480976364328</v>
       </c>
       <c r="AP11" t="n">
-        <v>0.6200686749570109</v>
+        <v>0.6200686749569833</v>
       </c>
       <c r="AQ11" t="n">
-        <v>0.5895610783322698</v>
+        <v>0.5895610783322743</v>
       </c>
       <c r="AR11" t="n">
-        <v>0.738991740820602</v>
+        <v>0.738991740821006</v>
       </c>
       <c r="AS11" t="n">
-        <v>0.7489168356147446</v>
+        <v>0.7489168356148064</v>
       </c>
       <c r="AT11" t="n">
-        <v>0.749565017655223</v>
+        <v>0.7495650176550614</v>
       </c>
     </row>
   </sheetData>
